--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A985F9D-E72D-46AD-907B-84973D9ED0F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472908DC-ECB6-495B-B37D-1FE05B18F4D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="150">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -358,9 +358,6 @@
     <t>А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>Зам. дирекотора по ПиТ</t>
-  </si>
-  <si>
     <t>И.М. Александрович</t>
   </si>
   <si>
@@ -500,6 +497,15 @@
   </si>
   <si>
     <t>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</t>
+  </si>
+  <si>
+    <t>Зам. дирекотора</t>
+  </si>
+  <si>
+    <t>26.06.2020 КПМ</t>
+  </si>
+  <si>
+    <t>29/06/2020 В-28-1</t>
   </si>
 </sst>
 </file>
@@ -2183,7 +2189,7 @@
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="645">
+  <cellXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3594,6 +3600,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="45" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="45" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3693,6 +3705,9 @@
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4040,10 +4055,10 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="45" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="45" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6810,7 +6825,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6822,25 +6837,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="492" t="s">
+      <c r="A1" s="494" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="496"/>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
       <c r="G1" s="360" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="493" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="494"/>
-      <c r="C2" s="494"/>
-      <c r="D2" s="494"/>
-      <c r="E2" s="495"/>
+      <c r="A2" s="495" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="496"/>
+      <c r="C2" s="496"/>
+      <c r="D2" s="496"/>
+      <c r="E2" s="497"/>
       <c r="G2" s="359" t="s">
         <v>79</v>
       </c>
@@ -6851,45 +6866,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="497" t="s">
+      <c r="A4" s="499" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
+      <c r="B4" s="500"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="499" t="s">
+      <c r="A5" s="501" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="500"/>
-      <c r="C5" s="500"/>
-      <c r="D5" s="500"/>
-      <c r="E5" s="501"/>
+      <c r="B5" s="502"/>
+      <c r="C5" s="502"/>
+      <c r="D5" s="502"/>
+      <c r="E5" s="503"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="492" t="s">
+      <c r="A7" s="494" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="496"/>
-      <c r="C7" s="496"/>
-      <c r="D7" s="496"/>
-      <c r="E7" s="496"/>
+      <c r="B7" s="498"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="502"/>
-      <c r="B8" s="503"/>
-      <c r="C8" s="503"/>
-      <c r="D8" s="503"/>
-      <c r="E8" s="504"/>
+      <c r="A8" s="504"/>
+      <c r="B8" s="505"/>
+      <c r="C8" s="505"/>
+      <c r="D8" s="505"/>
+      <c r="E8" s="506"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="492" t="s">
+      <c r="A10" s="494" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="492"/>
+      <c r="B10" s="494"/>
       <c r="C10" s="361"/>
       <c r="D10" s="367" t="s">
         <v>92</v>
@@ -6900,33 +6915,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="490"/>
-      <c r="B11" s="491"/>
+      <c r="A11" s="492"/>
+      <c r="B11" s="493"/>
       <c r="D11" s="366">
         <v>43991</v>
       </c>
-      <c r="F11" s="505" t="s">
+      <c r="F11" s="507" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="505"/>
-      <c r="H11" s="505"/>
-      <c r="I11" s="505"/>
-      <c r="J11" s="506" t="s">
+      <c r="G11" s="507"/>
+      <c r="H11" s="507"/>
+      <c r="I11" s="507"/>
+      <c r="J11" s="508" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="506"/>
+      <c r="K11" s="508"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="505" t="s">
+      <c r="F12" s="507" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="505"/>
-      <c r="H12" s="505"/>
-      <c r="I12" s="505"/>
-      <c r="J12" s="506" t="s">
+      <c r="G12" s="507"/>
+      <c r="H12" s="507"/>
+      <c r="I12" s="507"/>
+      <c r="J12" s="508" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="506"/>
+      <c r="K12" s="508"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="371" t="s">
@@ -6936,24 +6951,24 @@
         <v>89</v>
       </c>
       <c r="C13" s="371" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="371" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="469" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="469" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="505" t="s">
+      <c r="F13" s="507" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="505"/>
-      <c r="H13" s="505"/>
-      <c r="I13" s="505"/>
-      <c r="J13" s="506" t="s">
+      <c r="G13" s="507"/>
+      <c r="H13" s="507"/>
+      <c r="I13" s="507"/>
+      <c r="J13" s="508" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="506"/>
+      <c r="K13" s="508"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="362" t="s">
@@ -6963,7 +6978,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="363">
         <v>32.5</v>
@@ -6981,7 +6996,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="363">
         <v>3</v>
@@ -6999,7 +7014,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="363">
         <v>34.200000000000003</v>
@@ -7017,7 +7032,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="363">
         <v>1.3</v>
@@ -7035,7 +7050,7 @@
         <v>60</v>
       </c>
       <c r="C18" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="363">
         <v>1.29</v>
@@ -7053,7 +7068,7 @@
         <v>80</v>
       </c>
       <c r="C19" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="363">
         <v>0.3</v>
@@ -7071,7 +7086,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="363">
         <v>0.5</v>
@@ -7089,7 +7104,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="363"/>
       <c r="E21" s="363"/>
@@ -7114,7 +7129,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="363">
         <v>1.7</v>
@@ -7132,7 +7147,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="363">
         <v>3</v>
@@ -7150,7 +7165,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="363">
         <v>1.5</v>
@@ -7162,13 +7177,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="364" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B26" s="370">
         <v>30</v>
       </c>
       <c r="C26" s="369" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="363"/>
       <c r="E26" s="363"/>
@@ -7189,15 +7204,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="489" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="489"/>
-      <c r="C28" s="489"/>
+      <c r="A28" s="491" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="491"/>
+      <c r="C28" s="491"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="360" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7270,47 +7285,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7321,9 +7336,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7342,22 +7357,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7368,22 +7383,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7394,27 +7409,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7781,25 +7796,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="623"/>
-      <c r="N21" s="623"/>
+      <c r="L21" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="626"/>
+      <c r="N21" s="626"/>
       <c r="O21" s="470"/>
       <c r="P21" s="470"/>
       <c r="Q21" s="486"/>
       <c r="R21" s="486"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="555" t="s">
+      <c r="O22" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7889,47 +7904,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7940,9 +7955,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7961,22 +7976,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7987,22 +8002,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8013,27 +8028,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8346,12 +8361,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="633" t="s">
+      <c r="B18" s="636" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="634"/>
-      <c r="D18" s="634"/>
-      <c r="E18" s="635"/>
+      <c r="C18" s="637"/>
+      <c r="D18" s="637"/>
+      <c r="E18" s="638"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8394,25 +8409,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="623"/>
-      <c r="N21" s="623"/>
+      <c r="L21" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M21" s="626"/>
+      <c r="N21" s="626"/>
       <c r="O21" s="470"/>
       <c r="P21" s="470"/>
       <c r="Q21" s="486"/>
       <c r="R21" s="486"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="555" t="s">
+      <c r="O22" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="558"/>
+      <c r="Q22" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="555"/>
-      <c r="Q22" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R22" s="557"/>
+      <c r="R22" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8512,47 +8527,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8563,9 +8578,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8584,22 +8599,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8610,22 +8625,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8636,27 +8651,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8959,25 +8974,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="623"/>
-      <c r="N19" s="623"/>
+      <c r="L19" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="626"/>
+      <c r="N19" s="626"/>
       <c r="O19" s="470"/>
       <c r="P19" s="470"/>
       <c r="Q19" s="486"/>
       <c r="R19" s="486"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9058,47 +9073,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="638">
+      <c r="J2" s="613"/>
+      <c r="K2" s="641">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="639"/>
+      <c r="L2" s="642"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="645"/>
+      <c r="Q2" s="645"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="640"/>
-      <c r="L3" s="641"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="643"/>
+      <c r="L3" s="644"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9109,9 +9124,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9130,22 +9145,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9156,22 +9171,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9182,27 +9197,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9464,25 +9479,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="623"/>
-      <c r="N18" s="623"/>
+      <c r="L18" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="626"/>
+      <c r="N18" s="626"/>
       <c r="O18" s="470"/>
       <c r="P18" s="470"/>
       <c r="Q18" s="486"/>
       <c r="R18" s="486"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="555" t="s">
+      <c r="O19" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9535,8 +9550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9558,7 +9573,7 @@
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="377"/>
       <c r="B1" s="468" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="377"/>
       <c r="D1" s="467" t="str">
@@ -9577,7 +9592,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="377"/>
       <c r="B2" s="377" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="377"/>
       <c r="D2" s="377"/>
@@ -9591,17 +9606,17 @@
       <c r="L2" s="378"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="509" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="509"/>
-      <c r="C3" s="509"/>
-      <c r="D3" s="509"/>
-      <c r="E3" s="509"/>
-      <c r="F3" s="509"/>
-      <c r="G3" s="509"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
+      <c r="A3" s="511" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
       <c r="K3" s="379"/>
       <c r="L3" s="379"/>
       <c r="M3" s="380"/>
@@ -9620,28 +9635,28 @@
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="384" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="385" t="s">
         <v>111</v>
-      </c>
-      <c r="B5" s="385" t="s">
-        <v>112</v>
       </c>
       <c r="C5" s="385" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="386" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="385" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="385" t="s">
+      <c r="F5" s="385" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="385" t="s">
+      <c r="G5" s="385" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="385" t="s">
+      <c r="H5" s="387" t="s">
         <v>116</v>
-      </c>
-      <c r="H5" s="387" t="s">
-        <v>117</v>
       </c>
       <c r="I5" s="388"/>
       <c r="J5" s="388"/>
@@ -10038,7 +10053,7 @@
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="380"/>
       <c r="B19" s="414" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="361"/>
       <c r="D19" s="361"/>
@@ -10053,31 +10068,31 @@
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="384" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="385" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="385" t="s">
+      <c r="C20" s="385" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="385" t="s">
+      <c r="D20" s="385" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="385" t="s">
+      <c r="E20" s="385" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="385" t="s">
+      <c r="F20" s="385" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="385" t="s">
+      <c r="G20" s="416" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="416" t="s">
+      <c r="H20" s="417" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="417" t="s">
+      <c r="I20" s="418" t="s">
         <v>126</v>
-      </c>
-      <c r="I20" s="418" t="s">
-        <v>127</v>
       </c>
       <c r="J20" s="388"/>
       <c r="K20" s="388"/>
@@ -10088,32 +10103,32 @@
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="420">
-        <v>43759</v>
+      <c r="B21" s="646" t="s">
+        <v>148</v>
       </c>
       <c r="C21" s="421">
-        <v>43765</v>
+        <v>44010</v>
       </c>
       <c r="D21" s="420">
-        <v>43769</v>
+        <v>44013</v>
       </c>
       <c r="E21" s="422">
-        <v>0</v>
+        <v>435936</v>
       </c>
       <c r="F21" s="422">
-        <v>0</v>
+        <v>461100</v>
       </c>
       <c r="G21" s="423">
         <f>F21/A$21</f>
-        <v>0</v>
+        <v>2.7446428571428573E-2</v>
       </c>
       <c r="H21" s="424">
         <f>A21-F21</f>
-        <v>16800000</v>
+        <v>16338900</v>
       </c>
       <c r="I21" s="425">
         <f>1-G21</f>
-        <v>1</v>
+        <v>0.97255357142857146</v>
       </c>
       <c r="J21" s="426"/>
       <c r="K21" s="400"/>
@@ -10121,22 +10136,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="427"/>
-      <c r="B22" s="428"/>
-      <c r="C22" s="428"/>
-      <c r="D22" s="428"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="429"/>
+      <c r="B22" s="647" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="428">
+        <v>44013</v>
+      </c>
+      <c r="D22" s="428">
+        <v>44013</v>
+      </c>
+      <c r="E22" s="429">
+        <v>297312</v>
+      </c>
+      <c r="F22" s="429">
+        <v>312883</v>
+      </c>
       <c r="G22" s="423">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>1.8623988095238096E-2</v>
       </c>
       <c r="H22" s="430">
         <f>H21-F22</f>
-        <v>16800000</v>
+        <v>16026017</v>
       </c>
       <c r="I22" s="431">
         <f>I21-G22</f>
-        <v>1</v>
+        <v>0.95392958333333333</v>
       </c>
       <c r="J22" s="380"/>
       <c r="K22" s="380"/>
@@ -10270,30 +10295,30 @@
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="450" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="451"/>
       <c r="C32" s="451"/>
       <c r="D32" s="452"/>
-      <c r="E32" s="643">
+      <c r="E32" s="489">
         <f>SUM(E21:E31)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="644">
+        <v>733248</v>
+      </c>
+      <c r="F32" s="490">
         <f>SUM(F21:F31)</f>
-        <v>0</v>
+        <v>773983</v>
       </c>
       <c r="G32" s="453">
         <f>SUM(G21:G31)</f>
-        <v>0</v>
+        <v>4.6070416666666669E-2</v>
       </c>
       <c r="H32" s="454">
         <f>A21-F32</f>
-        <v>16800000</v>
+        <v>16026017</v>
       </c>
       <c r="I32" s="455">
         <f>1-G32</f>
-        <v>1</v>
+        <v>0.95392958333333333</v>
       </c>
       <c r="J32" s="456"/>
       <c r="K32" s="456"/>
@@ -10312,12 +10337,12 @@
       <c r="J35" s="380"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="510" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36" s="510"/>
-      <c r="C36" s="510"/>
-      <c r="D36" s="510"/>
+      <c r="A36" s="512" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="512"/>
+      <c r="C36" s="512"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="380"/>
       <c r="F36" s="380"/>
       <c r="G36" s="380"/>
@@ -10326,15 +10351,15 @@
       <c r="J36" s="380"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="511" t="s">
+      <c r="A37" s="513" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="513"/>
+      <c r="C37" s="457" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="511"/>
-      <c r="C37" s="457" t="s">
+      <c r="D37" s="457" t="s">
         <v>131</v>
-      </c>
-      <c r="D37" s="457" t="s">
-        <v>132</v>
       </c>
       <c r="E37" s="380"/>
       <c r="F37" s="380"/>
@@ -10344,21 +10369,21 @@
       <c r="J37" s="380"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="512">
+      <c r="A38" s="514">
         <f>A21-F32</f>
-        <v>16800000</v>
-      </c>
-      <c r="B38" s="513"/>
+        <v>16026017</v>
+      </c>
+      <c r="B38" s="515"/>
       <c r="C38" s="458">
         <f>1-G32</f>
-        <v>1</v>
+        <v>0.95392958333333333</v>
       </c>
       <c r="D38" s="459">
         <f>(C38/0.8)*100</f>
-        <v>125</v>
+        <v>119.24119791666665</v>
       </c>
       <c r="E38" s="460" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F38" s="460"/>
       <c r="G38" s="460"/>
@@ -10410,8 +10435,8 @@
       <c r="F42" s="462"/>
       <c r="G42" s="462"/>
       <c r="H42" s="462"/>
-      <c r="I42" s="514"/>
-      <c r="J42" s="515"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="517"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="463"/>
@@ -10505,9 +10530,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="380"/>
-      <c r="B52" s="507"/>
-      <c r="C52" s="507"/>
-      <c r="D52" s="508"/>
+      <c r="B52" s="509"/>
+      <c r="C52" s="509"/>
+      <c r="D52" s="510"/>
       <c r="E52" s="460"/>
       <c r="F52" s="380"/>
       <c r="G52" s="380"/>
@@ -10524,8 +10549,8 @@
       <c r="F53" s="462"/>
       <c r="G53" s="462"/>
       <c r="H53" s="462"/>
-      <c r="I53" s="514"/>
-      <c r="J53" s="515"/>
+      <c r="I53" s="516"/>
+      <c r="J53" s="517"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="463"/>
@@ -10536,8 +10561,8 @@
       <c r="F54" s="410"/>
       <c r="G54" s="410"/>
       <c r="H54" s="464"/>
-      <c r="I54" s="516"/>
-      <c r="J54" s="516"/>
+      <c r="I54" s="518"/>
+      <c r="J54" s="518"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="463"/>
@@ -10548,8 +10573,8 @@
       <c r="F55" s="400"/>
       <c r="G55" s="400"/>
       <c r="H55" s="400"/>
-      <c r="I55" s="516"/>
-      <c r="J55" s="516"/>
+      <c r="I55" s="518"/>
+      <c r="J55" s="518"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="380"/>
@@ -10562,12 +10587,12 @@
       <c r="H56" s="380"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="514"/>
-      <c r="C61" s="515"/>
+      <c r="B61" s="516"/>
+      <c r="C61" s="517"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="514"/>
-      <c r="C68" s="515"/>
+      <c r="B68" s="516"/>
+      <c r="C68" s="517"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10596,8 +10621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G25"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10623,7 +10648,7 @@
     </row>
     <row r="3" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="H3" s="310"/>
       <c r="I3" s="310"/>
@@ -10632,7 +10657,7 @@
     </row>
     <row r="4" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H4" s="310"/>
       <c r="I4" s="310"/>
@@ -10643,7 +10668,7 @@
     <row r="6" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="488"/>
       <c r="H6" s="309" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
@@ -10664,47 +10689,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="524" t="s">
+      <c r="A11" s="526" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="524"/>
-      <c r="C11" s="524"/>
-      <c r="D11" s="524"/>
-      <c r="E11" s="524"/>
-      <c r="F11" s="524"/>
-      <c r="G11" s="524"/>
-      <c r="H11" s="524"/>
-      <c r="I11" s="524"/>
-      <c r="J11" s="524"/>
+      <c r="B11" s="526"/>
+      <c r="C11" s="526"/>
+      <c r="D11" s="526"/>
+      <c r="E11" s="526"/>
+      <c r="F11" s="526"/>
+      <c r="G11" s="526"/>
+      <c r="H11" s="526"/>
+      <c r="I11" s="526"/>
+      <c r="J11" s="526"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="523" t="s">
+      <c r="A12" s="525" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="523"/>
-      <c r="C12" s="523"/>
-      <c r="D12" s="523"/>
-      <c r="E12" s="523"/>
-      <c r="F12" s="523"/>
-      <c r="G12" s="523"/>
-      <c r="H12" s="523"/>
-      <c r="I12" s="523"/>
-      <c r="J12" s="523"/>
+      <c r="B12" s="525"/>
+      <c r="C12" s="525"/>
+      <c r="D12" s="525"/>
+      <c r="E12" s="525"/>
+      <c r="F12" s="525"/>
+      <c r="G12" s="525"/>
+      <c r="H12" s="525"/>
+      <c r="I12" s="525"/>
+      <c r="J12" s="525"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="525" t="str">
-        <f>[1]Данные!A2</f>
-        <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
-      </c>
-      <c r="B13" s="524"/>
-      <c r="C13" s="524"/>
-      <c r="D13" s="524"/>
-      <c r="E13" s="524"/>
-      <c r="F13" s="524"/>
-      <c r="G13" s="524"/>
-      <c r="H13" s="524"/>
-      <c r="I13" s="524"/>
-      <c r="J13" s="524"/>
+      <c r="A13" s="527" t="str">
+        <f>Данные!A2</f>
+        <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
+      </c>
+      <c r="B13" s="528"/>
+      <c r="C13" s="528"/>
+      <c r="D13" s="528"/>
+      <c r="E13" s="528"/>
+      <c r="F13" s="528"/>
+      <c r="G13" s="528"/>
+      <c r="H13" s="528"/>
+      <c r="I13" s="528"/>
+      <c r="J13" s="528"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10829,493 +10854,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="526" t="s">
+      <c r="A22" s="529" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="526" t="s">
+      <c r="B22" s="529" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="526"/>
-      <c r="D22" s="526"/>
-      <c r="E22" s="526" t="s">
+      <c r="C22" s="529"/>
+      <c r="D22" s="529"/>
+      <c r="E22" s="529" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="526"/>
-      <c r="G22" s="541" t="s">
+      <c r="F22" s="529"/>
+      <c r="G22" s="544" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="526" t="s">
+      <c r="H22" s="529" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="526"/>
-      <c r="J22" s="526"/>
+      <c r="I22" s="529"/>
+      <c r="J22" s="529"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="526"/>
-      <c r="B23" s="526"/>
-      <c r="C23" s="526"/>
-      <c r="D23" s="526"/>
-      <c r="E23" s="526"/>
-      <c r="F23" s="526"/>
-      <c r="G23" s="541"/>
-      <c r="H23" s="526"/>
-      <c r="I23" s="526"/>
-      <c r="J23" s="526"/>
+      <c r="A23" s="529"/>
+      <c r="B23" s="529"/>
+      <c r="C23" s="529"/>
+      <c r="D23" s="529"/>
+      <c r="E23" s="529"/>
+      <c r="F23" s="529"/>
+      <c r="G23" s="544"/>
+      <c r="H23" s="529"/>
+      <c r="I23" s="529"/>
+      <c r="J23" s="529"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="530">
         <v>1</v>
       </c>
-      <c r="B24" s="517" t="s">
+      <c r="B24" s="519" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="518"/>
-      <c r="D24" s="519"/>
-      <c r="E24" s="529" t="str">
+      <c r="C24" s="520"/>
+      <c r="D24" s="521"/>
+      <c r="E24" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F24" s="530"/>
-      <c r="G24" s="533">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="535"/>
-      <c r="I24" s="536"/>
-      <c r="J24" s="537"/>
+      <c r="H24" s="538"/>
+      <c r="I24" s="539"/>
+      <c r="J24" s="540"/>
     </row>
     <row r="25" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="520" t="str">
+      <c r="A25" s="531"/>
+      <c r="B25" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C25" s="521"/>
-      <c r="D25" s="522"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="538"/>
-      <c r="I25" s="539"/>
-      <c r="J25" s="540"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="524"/>
+      <c r="E25" s="534"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="542"/>
+      <c r="J25" s="543"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="530">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="542" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="543"/>
-      <c r="D26" s="544"/>
-      <c r="E26" s="529" t="str">
+      <c r="B26" s="545" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="546"/>
+      <c r="D26" s="547"/>
+      <c r="E26" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F26" s="530"/>
-      <c r="G26" s="533">
+      <c r="F26" s="533"/>
+      <c r="G26" s="536">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="535"/>
-      <c r="I26" s="536"/>
-      <c r="J26" s="537"/>
+      <c r="H26" s="538"/>
+      <c r="I26" s="539"/>
+      <c r="J26" s="540"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="520" t="str">
+      <c r="A27" s="531"/>
+      <c r="B27" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C27" s="521"/>
-      <c r="D27" s="522"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="538"/>
-      <c r="I27" s="539"/>
-      <c r="J27" s="540"/>
+      <c r="C27" s="523"/>
+      <c r="D27" s="524"/>
+      <c r="E27" s="534"/>
+      <c r="F27" s="535"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="543"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="530">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="542" t="s">
+      <c r="B28" s="545" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="543"/>
-      <c r="D28" s="544"/>
-      <c r="E28" s="529" t="str">
+      <c r="C28" s="546"/>
+      <c r="D28" s="547"/>
+      <c r="E28" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F28" s="530"/>
-      <c r="G28" s="533">
+      <c r="F28" s="533"/>
+      <c r="G28" s="536">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="535"/>
-      <c r="I28" s="536"/>
-      <c r="J28" s="537"/>
+      <c r="H28" s="538"/>
+      <c r="I28" s="539"/>
+      <c r="J28" s="540"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="520" t="str">
+      <c r="A29" s="531"/>
+      <c r="B29" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C29" s="521"/>
-      <c r="D29" s="522"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="538"/>
-      <c r="I29" s="539"/>
-      <c r="J29" s="540"/>
+      <c r="C29" s="523"/>
+      <c r="D29" s="524"/>
+      <c r="E29" s="534"/>
+      <c r="F29" s="535"/>
+      <c r="G29" s="537"/>
+      <c r="H29" s="541"/>
+      <c r="I29" s="542"/>
+      <c r="J29" s="543"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="530">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="542" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="543"/>
-      <c r="D30" s="544"/>
-      <c r="E30" s="529" t="str">
+      <c r="B30" s="545" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="546"/>
+      <c r="D30" s="547"/>
+      <c r="E30" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F30" s="530"/>
-      <c r="G30" s="533">
+      <c r="F30" s="533"/>
+      <c r="G30" s="536">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="535"/>
-      <c r="I30" s="536"/>
-      <c r="J30" s="537"/>
+      <c r="H30" s="538"/>
+      <c r="I30" s="539"/>
+      <c r="J30" s="540"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="520" t="str">
+      <c r="A31" s="531"/>
+      <c r="B31" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C31" s="521"/>
-      <c r="D31" s="522"/>
-      <c r="E31" s="531"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="538"/>
-      <c r="I31" s="539"/>
-      <c r="J31" s="540"/>
+      <c r="C31" s="523"/>
+      <c r="D31" s="524"/>
+      <c r="E31" s="534"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="537"/>
+      <c r="H31" s="541"/>
+      <c r="I31" s="542"/>
+      <c r="J31" s="543"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="530">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="542" t="s">
+      <c r="B32" s="545" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="543"/>
-      <c r="D32" s="544"/>
-      <c r="E32" s="529" t="str">
+      <c r="C32" s="546"/>
+      <c r="D32" s="547"/>
+      <c r="E32" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F32" s="530"/>
-      <c r="G32" s="533">
+      <c r="F32" s="533"/>
+      <c r="G32" s="536">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="535"/>
-      <c r="I32" s="536"/>
-      <c r="J32" s="537"/>
+      <c r="H32" s="538"/>
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="520" t="str">
+      <c r="A33" s="531"/>
+      <c r="B33" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C33" s="521"/>
-      <c r="D33" s="522"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="538"/>
-      <c r="I33" s="539"/>
-      <c r="J33" s="540"/>
+      <c r="C33" s="523"/>
+      <c r="D33" s="524"/>
+      <c r="E33" s="534"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="541"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="543"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="530">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="542" t="s">
+      <c r="B34" s="545" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="543"/>
-      <c r="D34" s="544"/>
-      <c r="E34" s="529" t="str">
+      <c r="C34" s="546"/>
+      <c r="D34" s="547"/>
+      <c r="E34" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F34" s="530"/>
-      <c r="G34" s="533">
+      <c r="F34" s="533"/>
+      <c r="G34" s="536">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="535"/>
-      <c r="I34" s="536"/>
-      <c r="J34" s="537"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="520" t="str">
+      <c r="A35" s="531"/>
+      <c r="B35" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C35" s="521"/>
-      <c r="D35" s="522"/>
-      <c r="E35" s="531"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="539"/>
-      <c r="J35" s="540"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="524"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="541"/>
+      <c r="I35" s="542"/>
+      <c r="J35" s="543"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="530">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="542" t="s">
+      <c r="B36" s="545" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="543"/>
-      <c r="D36" s="544"/>
-      <c r="E36" s="529" t="str">
+      <c r="C36" s="546"/>
+      <c r="D36" s="547"/>
+      <c r="E36" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F36" s="530"/>
-      <c r="G36" s="533">
+      <c r="F36" s="533"/>
+      <c r="G36" s="536">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="535"/>
-      <c r="I36" s="536"/>
-      <c r="J36" s="537"/>
+      <c r="H36" s="538"/>
+      <c r="I36" s="539"/>
+      <c r="J36" s="540"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="528"/>
-      <c r="B37" s="520" t="str">
+      <c r="A37" s="531"/>
+      <c r="B37" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C37" s="521"/>
-      <c r="D37" s="522"/>
-      <c r="E37" s="531"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="539"/>
-      <c r="J37" s="540"/>
+      <c r="C37" s="523"/>
+      <c r="D37" s="524"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="535"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="541"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="530">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="542" t="s">
+      <c r="B38" s="545" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="543"/>
-      <c r="D38" s="544"/>
-      <c r="E38" s="529" t="str">
+      <c r="C38" s="546"/>
+      <c r="D38" s="547"/>
+      <c r="E38" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F38" s="530"/>
-      <c r="G38" s="533">
+      <c r="F38" s="533"/>
+      <c r="G38" s="536">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="535"/>
-      <c r="I38" s="536"/>
-      <c r="J38" s="537"/>
+      <c r="H38" s="538"/>
+      <c r="I38" s="539"/>
+      <c r="J38" s="540"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528"/>
-      <c r="B39" s="520" t="str">
+      <c r="A39" s="531"/>
+      <c r="B39" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C39" s="521"/>
-      <c r="D39" s="522"/>
-      <c r="E39" s="531"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="538"/>
-      <c r="I39" s="539"/>
-      <c r="J39" s="540"/>
+      <c r="C39" s="523"/>
+      <c r="D39" s="524"/>
+      <c r="E39" s="534"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="541"/>
+      <c r="I39" s="542"/>
+      <c r="J39" s="543"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="530">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="542" t="s">
+      <c r="B40" s="545" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="543"/>
-      <c r="D40" s="544"/>
-      <c r="E40" s="529" t="str">
+      <c r="C40" s="546"/>
+      <c r="D40" s="547"/>
+      <c r="E40" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F40" s="530"/>
-      <c r="G40" s="533">
+      <c r="F40" s="533"/>
+      <c r="G40" s="536">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="535"/>
-      <c r="I40" s="536"/>
-      <c r="J40" s="537"/>
+      <c r="H40" s="538"/>
+      <c r="I40" s="539"/>
+      <c r="J40" s="540"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="520" t="str">
+      <c r="A41" s="531"/>
+      <c r="B41" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C41" s="521"/>
-      <c r="D41" s="522"/>
-      <c r="E41" s="531"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="538"/>
-      <c r="I41" s="539"/>
-      <c r="J41" s="540"/>
+      <c r="C41" s="523"/>
+      <c r="D41" s="524"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="535"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="541"/>
+      <c r="I41" s="542"/>
+      <c r="J41" s="543"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="530">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="542" t="s">
+      <c r="B42" s="545" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="543"/>
-      <c r="D42" s="544"/>
-      <c r="E42" s="529" t="str">
+      <c r="C42" s="546"/>
+      <c r="D42" s="547"/>
+      <c r="E42" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F42" s="530"/>
-      <c r="G42" s="533">
+      <c r="F42" s="533"/>
+      <c r="G42" s="536">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="H42" s="535"/>
-      <c r="I42" s="536"/>
-      <c r="J42" s="537"/>
+      <c r="H42" s="538"/>
+      <c r="I42" s="539"/>
+      <c r="J42" s="540"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="520" t="str">
+      <c r="A43" s="531"/>
+      <c r="B43" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C43" s="521"/>
-      <c r="D43" s="522"/>
-      <c r="E43" s="531"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="538"/>
-      <c r="I43" s="539"/>
-      <c r="J43" s="540"/>
+      <c r="C43" s="523"/>
+      <c r="D43" s="524"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="537"/>
+      <c r="H43" s="541"/>
+      <c r="I43" s="542"/>
+      <c r="J43" s="543"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="530">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="542" t="s">
-        <v>104</v>
-      </c>
-      <c r="C44" s="543"/>
-      <c r="D44" s="544"/>
-      <c r="E44" s="529" t="str">
+      <c r="B44" s="545" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="546"/>
+      <c r="D44" s="547"/>
+      <c r="E44" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F44" s="530"/>
-      <c r="G44" s="533">
+      <c r="F44" s="533"/>
+      <c r="G44" s="536">
         <f>Данные!B26</f>
         <v>30</v>
       </c>
-      <c r="H44" s="535"/>
-      <c r="I44" s="536"/>
-      <c r="J44" s="537"/>
+      <c r="H44" s="538"/>
+      <c r="I44" s="539"/>
+      <c r="J44" s="540"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="520" t="str">
+      <c r="A45" s="531"/>
+      <c r="B45" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C45" s="521"/>
-      <c r="D45" s="522"/>
-      <c r="E45" s="531"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="538"/>
-      <c r="I45" s="539"/>
-      <c r="J45" s="540"/>
+      <c r="C45" s="523"/>
+      <c r="D45" s="524"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="537"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="542"/>
+      <c r="J45" s="543"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="530">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="542" t="s">
+      <c r="B46" s="545" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="543"/>
-      <c r="D46" s="544"/>
-      <c r="E46" s="529" t="str">
+      <c r="C46" s="546"/>
+      <c r="D46" s="547"/>
+      <c r="E46" s="532" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F46" s="530"/>
-      <c r="G46" s="533">
+      <c r="F46" s="533"/>
+      <c r="G46" s="536">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="535"/>
-      <c r="I46" s="536"/>
-      <c r="J46" s="537"/>
+      <c r="H46" s="538"/>
+      <c r="I46" s="539"/>
+      <c r="J46" s="540"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="520" t="str">
+      <c r="A47" s="531"/>
+      <c r="B47" s="522" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C47" s="521"/>
-      <c r="D47" s="522"/>
-      <c r="E47" s="531"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="538"/>
-      <c r="I47" s="539"/>
-      <c r="J47" s="540"/>
+      <c r="C47" s="523"/>
+      <c r="D47" s="524"/>
+      <c r="E47" s="534"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="537"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="542"/>
+      <c r="J47" s="543"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11581,47 +11606,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11632,9 +11657,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11653,22 +11678,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="549"/>
-      <c r="K5" s="500"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11679,22 +11704,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="548"/>
-      <c r="J6" s="549"/>
-      <c r="K6" s="500"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11705,27 +11730,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="502">
+      <c r="C7" s="554"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="553" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="490">
+      <c r="J7" s="557"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12193,12 +12218,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="545" t="s">
+      <c r="B23" s="548" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="546"/>
-      <c r="D23" s="546"/>
-      <c r="E23" s="547"/>
+      <c r="C23" s="549"/>
+      <c r="D23" s="549"/>
+      <c r="E23" s="550"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12220,12 +12245,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="583" t="s">
+      <c r="B24" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="584"/>
-      <c r="D24" s="584"/>
-      <c r="E24" s="585"/>
+      <c r="C24" s="587"/>
+      <c r="D24" s="587"/>
+      <c r="E24" s="588"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12268,25 +12293,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="558" t="s">
-        <v>137</v>
-      </c>
-      <c r="L27" s="558"/>
-      <c r="M27" s="558"/>
+      <c r="K27" s="561" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" s="561"/>
+      <c r="M27" s="561"/>
       <c r="N27" s="470"/>
       <c r="O27" s="470"/>
       <c r="P27" s="486"/>
       <c r="Q27" s="486"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="555" t="s">
+      <c r="N28" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" s="558"/>
+      <c r="P28" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="555"/>
-      <c r="P28" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q28" s="557"/>
+      <c r="Q28" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12378,50 +12403,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="594">
+      <c r="B2" s="597">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12432,9 +12457,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12453,22 +12478,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12479,21 +12504,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12504,27 +12529,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12713,12 +12738,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="592" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="593"/>
-      <c r="D14" s="593"/>
-      <c r="E14" s="593"/>
+      <c r="B14" s="595" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="596"/>
+      <c r="D14" s="596"/>
+      <c r="E14" s="596"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12740,13 +12765,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="545" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="546"/>
-      <c r="D15" s="546"/>
-      <c r="E15" s="546"/>
-      <c r="F15" s="591"/>
+      <c r="B15" s="548" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="549"/>
+      <c r="D15" s="549"/>
+      <c r="E15" s="549"/>
+      <c r="F15" s="594"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12765,12 +12790,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="586" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12817,25 +12842,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="558" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="558"/>
-      <c r="N19" s="558"/>
+      <c r="L19" s="561" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="561"/>
+      <c r="N19" s="561"/>
       <c r="O19" s="470"/>
       <c r="P19" s="470"/>
       <c r="Q19" s="486"/>
       <c r="R19" s="486"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12939,47 +12964,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="571"/>
-      <c r="Q2" s="571"/>
+      <c r="P2" s="574"/>
+      <c r="Q2" s="574"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12990,9 +13015,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13011,22 +13036,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="549"/>
-      <c r="K5" s="500"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13037,22 +13062,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="548"/>
-      <c r="J6" s="549"/>
-      <c r="K6" s="500"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13063,27 +13088,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="502">
+      <c r="C7" s="554"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="553" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="490">
+      <c r="J7" s="557"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13545,25 +13570,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M23" s="623"/>
-      <c r="N23" s="623"/>
+      <c r="L23" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="626"/>
+      <c r="N23" s="626"/>
       <c r="O23" s="470"/>
       <c r="P23" s="470"/>
       <c r="Q23" s="486"/>
       <c r="R23" s="486"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="555" t="s">
+      <c r="O24" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="558"/>
+      <c r="Q24" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="555"/>
-      <c r="Q24" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R24" s="557"/>
+      <c r="R24" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13655,47 +13680,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="559"/>
-      <c r="C2" s="560"/>
-      <c r="D2" s="561"/>
-      <c r="E2" s="568" t="s">
+      <c r="B2" s="562"/>
+      <c r="C2" s="563"/>
+      <c r="D2" s="564"/>
+      <c r="E2" s="571" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="569"/>
-      <c r="G2" s="569"/>
-      <c r="H2" s="570"/>
-      <c r="I2" s="575" t="s">
+      <c r="F2" s="572"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="573"/>
+      <c r="I2" s="578" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="576"/>
-      <c r="K2" s="579">
+      <c r="J2" s="579"/>
+      <c r="K2" s="582">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="580"/>
+      <c r="L2" s="583"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="624"/>
-      <c r="Q2" s="624"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="562"/>
-      <c r="C3" s="563"/>
-      <c r="D3" s="564"/>
-      <c r="E3" s="572" t="s">
+      <c r="B3" s="565"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="567"/>
+      <c r="E3" s="575" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="573"/>
-      <c r="G3" s="573"/>
-      <c r="H3" s="574"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="578"/>
-      <c r="K3" s="581"/>
-      <c r="L3" s="582"/>
+      <c r="F3" s="576"/>
+      <c r="G3" s="576"/>
+      <c r="H3" s="577"/>
+      <c r="I3" s="580"/>
+      <c r="J3" s="581"/>
+      <c r="K3" s="584"/>
+      <c r="L3" s="585"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13706,9 +13731,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="565"/>
-      <c r="C4" s="566"/>
-      <c r="D4" s="567"/>
+      <c r="B4" s="568"/>
+      <c r="C4" s="569"/>
+      <c r="D4" s="570"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13727,22 +13752,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="587"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="590"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="548"/>
-      <c r="J5" s="549"/>
-      <c r="K5" s="500"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="502"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13753,22 +13778,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="548"/>
-      <c r="J6" s="549"/>
-      <c r="K6" s="500"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="502"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13779,27 +13804,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="551"/>
-      <c r="D7" s="502">
+      <c r="C7" s="554"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="550" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="553" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="554"/>
-      <c r="K7" s="490">
+      <c r="J7" s="557"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14071,25 +14096,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="623"/>
-      <c r="N18" s="623"/>
+      <c r="L18" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="626"/>
+      <c r="N18" s="626"/>
       <c r="O18" s="470"/>
       <c r="P18" s="470"/>
       <c r="Q18" s="486"/>
       <c r="R18" s="486"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="555" t="s">
+      <c r="O19" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="558"/>
+      <c r="Q19" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="555"/>
-      <c r="Q19" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R19" s="557"/>
+      <c r="R19" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14185,60 +14210,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="614"/>
-      <c r="M2" s="625"/>
-      <c r="N2" s="626"/>
-      <c r="O2" s="626"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
-      <c r="R2" s="627"/>
+      <c r="L2" s="617"/>
+      <c r="M2" s="628"/>
+      <c r="N2" s="629"/>
+      <c r="O2" s="629"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
+      <c r="R2" s="630"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
-      <c r="M3" s="628"/>
-      <c r="N3" s="629"/>
-      <c r="O3" s="629"/>
-      <c r="P3" s="629"/>
-      <c r="Q3" s="629"/>
-      <c r="R3" s="630"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
+      <c r="M3" s="631"/>
+      <c r="N3" s="632"/>
+      <c r="O3" s="632"/>
+      <c r="P3" s="632"/>
+      <c r="Q3" s="632"/>
+      <c r="R3" s="633"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14247,95 +14272,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="628"/>
-      <c r="N4" s="629"/>
-      <c r="O4" s="629"/>
-      <c r="P4" s="629"/>
-      <c r="Q4" s="629"/>
-      <c r="R4" s="630"/>
+      <c r="M4" s="631"/>
+      <c r="N4" s="632"/>
+      <c r="O4" s="632"/>
+      <c r="P4" s="632"/>
+      <c r="Q4" s="632"/>
+      <c r="R4" s="633"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
-      <c r="M5" s="628"/>
-      <c r="N5" s="629"/>
-      <c r="O5" s="629"/>
-      <c r="P5" s="629"/>
-      <c r="Q5" s="629"/>
-      <c r="R5" s="630"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
+      <c r="M5" s="631"/>
+      <c r="N5" s="632"/>
+      <c r="O5" s="632"/>
+      <c r="P5" s="632"/>
+      <c r="Q5" s="632"/>
+      <c r="R5" s="633"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
-      <c r="M6" s="628"/>
-      <c r="N6" s="629"/>
-      <c r="O6" s="629"/>
-      <c r="P6" s="629"/>
-      <c r="Q6" s="629"/>
-      <c r="R6" s="630"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
+      <c r="M6" s="631"/>
+      <c r="N6" s="632"/>
+      <c r="O6" s="632"/>
+      <c r="P6" s="632"/>
+      <c r="Q6" s="632"/>
+      <c r="R6" s="633"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
-      <c r="M7" s="628"/>
-      <c r="N7" s="629"/>
-      <c r="O7" s="629"/>
-      <c r="P7" s="629"/>
-      <c r="Q7" s="629"/>
-      <c r="R7" s="630"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="631"/>
+      <c r="N7" s="632"/>
+      <c r="O7" s="632"/>
+      <c r="P7" s="632"/>
+      <c r="Q7" s="632"/>
+      <c r="R7" s="633"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14501,7 +14526,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="476"/>
       <c r="I13" s="477"/>
@@ -14532,7 +14557,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="296" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="98"/>
       <c r="I14" s="97"/>
@@ -14656,7 +14681,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="296" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="98"/>
       <c r="I18" s="97"/>
@@ -14704,12 +14729,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="583" t="s">
+      <c r="B20" s="586" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="584"/>
-      <c r="D20" s="584"/>
-      <c r="E20" s="585"/>
+      <c r="C20" s="587"/>
+      <c r="D20" s="587"/>
+      <c r="E20" s="588"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14754,25 +14779,25 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M23" s="623"/>
-      <c r="N23" s="623"/>
+      <c r="L23" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M23" s="626"/>
+      <c r="N23" s="626"/>
       <c r="O23" s="470"/>
       <c r="P23" s="470"/>
       <c r="Q23" s="486"/>
       <c r="R23" s="486"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="555" t="s">
+      <c r="O24" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P24" s="558"/>
+      <c r="Q24" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P24" s="555"/>
-      <c r="Q24" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R24" s="557"/>
+      <c r="R24" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14862,47 +14887,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="594"/>
-      <c r="C2" s="595"/>
-      <c r="D2" s="596"/>
-      <c r="E2" s="603" t="s">
+      <c r="B2" s="597"/>
+      <c r="C2" s="598"/>
+      <c r="D2" s="599"/>
+      <c r="E2" s="606" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="604"/>
-      <c r="G2" s="604"/>
-      <c r="H2" s="605"/>
-      <c r="I2" s="609" t="s">
+      <c r="F2" s="607"/>
+      <c r="G2" s="607"/>
+      <c r="H2" s="608"/>
+      <c r="I2" s="612" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="610"/>
-      <c r="K2" s="613">
+      <c r="J2" s="613"/>
+      <c r="K2" s="616">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="614"/>
+      <c r="L2" s="617"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="597"/>
-      <c r="C3" s="598"/>
-      <c r="D3" s="599"/>
-      <c r="E3" s="606" t="s">
+      <c r="B3" s="600"/>
+      <c r="C3" s="601"/>
+      <c r="D3" s="602"/>
+      <c r="E3" s="609" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="607"/>
-      <c r="G3" s="607"/>
-      <c r="H3" s="608"/>
-      <c r="I3" s="611"/>
-      <c r="J3" s="612"/>
-      <c r="K3" s="615"/>
-      <c r="L3" s="616"/>
+      <c r="F3" s="610"/>
+      <c r="G3" s="610"/>
+      <c r="H3" s="611"/>
+      <c r="I3" s="614"/>
+      <c r="J3" s="615"/>
+      <c r="K3" s="618"/>
+      <c r="L3" s="619"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14913,9 +14938,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="600"/>
-      <c r="C4" s="601"/>
-      <c r="D4" s="602"/>
+      <c r="B4" s="603"/>
+      <c r="C4" s="604"/>
+      <c r="D4" s="605"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14934,22 +14959,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="589" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="617"/>
-      <c r="D5" s="499" t="str">
+      <c r="C5" s="620"/>
+      <c r="D5" s="501" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="500"/>
-      <c r="F5" s="500"/>
-      <c r="G5" s="500"/>
-      <c r="H5" s="501"/>
-      <c r="I5" s="618"/>
-      <c r="J5" s="619"/>
-      <c r="K5" s="620"/>
-      <c r="L5" s="501"/>
+      <c r="E5" s="502"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="502"/>
+      <c r="H5" s="503"/>
+      <c r="I5" s="621"/>
+      <c r="J5" s="622"/>
+      <c r="K5" s="623"/>
+      <c r="L5" s="503"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14960,22 +14985,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="586" t="s">
+      <c r="B6" s="589" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="617"/>
-      <c r="D6" s="493" t="str">
+      <c r="C6" s="620"/>
+      <c r="D6" s="495" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="589"/>
-      <c r="F6" s="589"/>
-      <c r="G6" s="589"/>
-      <c r="H6" s="590"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="501"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="621"/>
+      <c r="J6" s="622"/>
+      <c r="K6" s="623"/>
+      <c r="L6" s="503"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14986,27 +15011,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="550" t="s">
+      <c r="B7" s="553" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="621"/>
-      <c r="D7" s="502">
+      <c r="C7" s="624"/>
+      <c r="D7" s="504">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="552"/>
-      <c r="F7" s="552"/>
-      <c r="G7" s="552"/>
-      <c r="H7" s="553"/>
-      <c r="I7" s="622" t="s">
+      <c r="E7" s="555"/>
+      <c r="F7" s="555"/>
+      <c r="G7" s="555"/>
+      <c r="H7" s="556"/>
+      <c r="I7" s="625" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="621"/>
-      <c r="K7" s="490">
+      <c r="J7" s="624"/>
+      <c r="K7" s="492">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="491"/>
+      <c r="L7" s="493"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15147,7 +15172,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="484"/>
       <c r="I12" s="477"/>
@@ -15257,12 +15282,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="583" t="s">
+      <c r="B16" s="586" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="584"/>
-      <c r="D16" s="584"/>
-      <c r="E16" s="585"/>
+      <c r="C16" s="587"/>
+      <c r="D16" s="587"/>
+      <c r="E16" s="588"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15307,25 +15332,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="623" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="623"/>
-      <c r="N19" s="623"/>
+      <c r="L19" s="626" t="s">
+        <v>136</v>
+      </c>
+      <c r="M19" s="626"/>
+      <c r="N19" s="626"/>
       <c r="O19" s="470"/>
       <c r="P19" s="470"/>
       <c r="Q19" s="486"/>
       <c r="R19" s="486"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="555" t="s">
+      <c r="O20" s="558" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="558"/>
+      <c r="Q20" s="559" t="s">
         <v>141</v>
       </c>
-      <c r="P20" s="555"/>
-      <c r="Q20" s="556" t="s">
-        <v>142</v>
-      </c>
-      <c r="R20" s="557"/>
+      <c r="R20" s="560"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472908DC-ECB6-495B-B37D-1FE05B18F4D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A24AD-AF22-4FA4-8B43-C3FC1A755FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="19710" yWindow="5565" windowWidth="6945" windowHeight="1020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="158">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -506,6 +506,30 @@
   </si>
   <si>
     <t>29/06/2020 В-28-1</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 420 гр.)</t>
+  </si>
+  <si>
+    <t>03.03.2020 КПМ</t>
+  </si>
+  <si>
+    <t>07/09/2020 В-28-1</t>
+  </si>
+  <si>
+    <t>08.10.2020 КПМ</t>
+  </si>
+  <si>
+    <t>12/10/2020 В-28-1</t>
+  </si>
+  <si>
+    <t>17.11.2020 КПМ</t>
+  </si>
+  <si>
+    <t>23.12.2020 КПМ</t>
+  </si>
+  <si>
+    <t>18/03/2021 В-28-1</t>
   </si>
 </sst>
 </file>
@@ -2189,7 +2213,7 @@
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="648">
+  <cellXfs count="641">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3308,7 +3332,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3468,41 +3491,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3606,6 +3603,30 @@
     <xf numFmtId="3" fontId="45" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4054,12 +4075,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6454,11 +6469,6 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>XXI-КПМ-30-1-500-4 АКВА МЯТАЯ</v>
-          </cell>
-        </row>
         <row r="11">
           <cell r="F11" t="str">
             <v>начальник производства</v>
@@ -6825,7 +6835,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6837,25 +6847,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="494" t="s">
+      <c r="A1" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="360" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="495" t="s">
+      <c r="A2" s="490" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="496"/>
-      <c r="C2" s="496"/>
-      <c r="D2" s="496"/>
-      <c r="E2" s="497"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="359" t="s">
         <v>79</v>
       </c>
@@ -6866,45 +6876,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="499" t="s">
+      <c r="A4" s="494" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="500"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="501" t="s">
+      <c r="A5" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="502"/>
-      <c r="C5" s="502"/>
-      <c r="D5" s="502"/>
-      <c r="E5" s="503"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="494" t="s">
+      <c r="A7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="498"/>
-      <c r="C7" s="498"/>
-      <c r="D7" s="498"/>
-      <c r="E7" s="498"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="504"/>
-      <c r="B8" s="505"/>
-      <c r="C8" s="505"/>
-      <c r="D8" s="505"/>
-      <c r="E8" s="506"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="494" t="s">
+      <c r="A10" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="494"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="361"/>
       <c r="D10" s="367" t="s">
         <v>92</v>
@@ -6915,33 +6925,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="492"/>
-      <c r="B11" s="493"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="366">
         <v>43991</v>
       </c>
-      <c r="F11" s="507" t="s">
+      <c r="F11" s="502" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="507"/>
-      <c r="H11" s="507"/>
-      <c r="I11" s="507"/>
-      <c r="J11" s="508" t="s">
+      <c r="G11" s="502"/>
+      <c r="H11" s="502"/>
+      <c r="I11" s="502"/>
+      <c r="J11" s="503" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="508"/>
+      <c r="K11" s="503"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="507" t="s">
+      <c r="F12" s="502" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="507"/>
-      <c r="H12" s="507"/>
-      <c r="I12" s="507"/>
-      <c r="J12" s="508" t="s">
+      <c r="G12" s="502"/>
+      <c r="H12" s="502"/>
+      <c r="I12" s="502"/>
+      <c r="J12" s="503" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="508"/>
+      <c r="K12" s="503"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="371" t="s">
@@ -6956,19 +6966,19 @@
       <c r="D13" s="371" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="469" t="s">
+      <c r="E13" s="456" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="507" t="s">
+      <c r="F13" s="502" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="507"/>
-      <c r="H13" s="507"/>
-      <c r="I13" s="507"/>
-      <c r="J13" s="508" t="s">
+      <c r="G13" s="502"/>
+      <c r="H13" s="502"/>
+      <c r="I13" s="502"/>
+      <c r="J13" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="508"/>
+      <c r="K13" s="503"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="362" t="s">
@@ -7204,11 +7214,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="491" t="s">
+      <c r="A28" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="491"/>
-      <c r="C28" s="491"/>
+      <c r="B28" s="486"/>
+      <c r="C28" s="486"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="360" t="s">
@@ -7285,47 +7295,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="612"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7336,9 +7346,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7357,22 +7367,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7383,22 +7393,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7409,27 +7419,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7796,25 +7806,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="626" t="s">
+      <c r="L21" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="626"/>
-      <c r="N21" s="626"/>
-      <c r="O21" s="470"/>
-      <c r="P21" s="470"/>
-      <c r="Q21" s="486"/>
-      <c r="R21" s="486"/>
+      <c r="M21" s="621"/>
+      <c r="N21" s="621"/>
+      <c r="O21" s="457"/>
+      <c r="P21" s="457"/>
+      <c r="Q21" s="473"/>
+      <c r="R21" s="473"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="553"/>
+      <c r="Q22" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7904,47 +7914,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="612"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7955,9 +7965,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7976,22 +7986,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8002,22 +8012,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8028,27 +8038,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8361,12 +8371,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="636" t="s">
+      <c r="B18" s="631" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="637"/>
-      <c r="D18" s="637"/>
-      <c r="E18" s="638"/>
+      <c r="C18" s="632"/>
+      <c r="D18" s="632"/>
+      <c r="E18" s="633"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8409,25 +8419,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="626" t="s">
+      <c r="L21" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M21" s="626"/>
-      <c r="N21" s="626"/>
-      <c r="O21" s="470"/>
-      <c r="P21" s="470"/>
-      <c r="Q21" s="486"/>
-      <c r="R21" s="486"/>
+      <c r="M21" s="621"/>
+      <c r="N21" s="621"/>
+      <c r="O21" s="457"/>
+      <c r="P21" s="457"/>
+      <c r="Q21" s="473"/>
+      <c r="R21" s="473"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="558" t="s">
+      <c r="O22" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="558"/>
-      <c r="Q22" s="559" t="s">
+      <c r="P22" s="553"/>
+      <c r="Q22" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="560"/>
+      <c r="R22" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8527,47 +8537,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="612"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8578,9 +8588,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8599,22 +8609,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8625,22 +8635,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8651,27 +8661,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8974,25 +8984,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="626" t="s">
+      <c r="L19" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="626"/>
-      <c r="N19" s="626"/>
-      <c r="O19" s="470"/>
-      <c r="P19" s="470"/>
-      <c r="Q19" s="486"/>
-      <c r="R19" s="486"/>
+      <c r="M19" s="621"/>
+      <c r="N19" s="621"/>
+      <c r="O19" s="457"/>
+      <c r="P19" s="457"/>
+      <c r="Q19" s="473"/>
+      <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9073,47 +9083,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="641">
+      <c r="J2" s="608"/>
+      <c r="K2" s="636">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="642"/>
+      <c r="L2" s="637"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="645"/>
-      <c r="Q2" s="645"/>
+      <c r="P2" s="640"/>
+      <c r="Q2" s="640"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="643"/>
-      <c r="L3" s="644"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="638"/>
+      <c r="L3" s="639"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9124,9 +9134,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9145,22 +9155,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9171,22 +9181,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9197,27 +9207,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9285,7 +9295,7 @@
       <c r="B10" s="279" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="375"/>
+      <c r="C10" s="374"/>
       <c r="D10" s="280">
         <v>0.1</v>
       </c>
@@ -9479,25 +9489,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="626" t="s">
+      <c r="L18" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="626"/>
-      <c r="N18" s="626"/>
-      <c r="O18" s="470"/>
-      <c r="P18" s="470"/>
-      <c r="Q18" s="486"/>
-      <c r="R18" s="486"/>
+      <c r="M18" s="621"/>
+      <c r="N18" s="621"/>
+      <c r="O18" s="457"/>
+      <c r="P18" s="457"/>
+      <c r="Q18" s="473"/>
+      <c r="R18" s="473"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="553"/>
+      <c r="Q19" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9551,7 +9561,7 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9565,109 +9575,109 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="377"/>
-      <c r="B1" s="468" t="s">
+      <c r="A1" s="376"/>
+      <c r="B1" s="455" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="377"/>
-      <c r="D1" s="467" t="str">
+      <c r="C1" s="376"/>
+      <c r="D1" s="454" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E1" s="377"/>
-      <c r="F1" s="377"/>
-      <c r="G1" s="377"/>
-      <c r="H1" s="377"/>
-      <c r="I1" s="377"/>
-      <c r="J1" s="377"/>
-      <c r="K1" s="377"/>
-      <c r="L1" s="377"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="377"/>
-      <c r="B2" s="377" t="s">
+      <c r="A2" s="376"/>
+      <c r="B2" s="376" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377"/>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377"/>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377"/>
-      <c r="J2" s="378"/>
-      <c r="K2" s="378"/>
-      <c r="L2" s="378"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="511" t="s">
+      <c r="A3" s="506" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="511"/>
-      <c r="C3" s="511"/>
-      <c r="D3" s="511"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
-      <c r="H3" s="511"/>
-      <c r="I3" s="511"/>
-      <c r="K3" s="379"/>
-      <c r="L3" s="379"/>
-      <c r="M3" s="380"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="506"/>
+      <c r="G3" s="506"/>
+      <c r="H3" s="506"/>
+      <c r="I3" s="506"/>
+      <c r="K3" s="378"/>
+      <c r="L3" s="378"/>
+      <c r="M3" s="379"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="380"/>
-      <c r="B4" s="381"/>
-      <c r="C4" s="381"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="383"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="379"/>
-      <c r="K4" s="379"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="380"/>
+      <c r="C4" s="380"/>
+      <c r="F4" s="381"/>
+      <c r="G4" s="382"/>
+      <c r="H4" s="381"/>
+      <c r="I4" s="381"/>
+      <c r="J4" s="378"/>
+      <c r="K4" s="378"/>
       <c r="M4" s="361"/>
     </row>
     <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="384" t="s">
+      <c r="A5" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="385" t="s">
+      <c r="B5" s="384" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="385" t="s">
+      <c r="C5" s="384" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="386" t="s">
+      <c r="D5" s="385" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="385" t="s">
+      <c r="E5" s="384" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="385" t="s">
+      <c r="F5" s="384" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="385" t="s">
+      <c r="G5" s="384" t="s">
         <v>115</v>
       </c>
-      <c r="H5" s="387" t="s">
+      <c r="H5" s="386" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="388"/>
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="387"/>
+      <c r="L5" s="387"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="389">
+      <c r="A6" s="388">
         <v>1</v>
       </c>
-      <c r="B6" s="390" t="str">
+      <c r="B6" s="389" t="str">
         <f>Данные!A14</f>
         <v>Чистовая форма</v>
       </c>
@@ -9675,30 +9685,30 @@
         <f>Данные!C14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D6" s="391">
+      <c r="D6" s="390">
         <f>Данные!$B14</f>
         <v>24</v>
       </c>
-      <c r="E6" s="391">
+      <c r="E6" s="390">
         <v>20</v>
       </c>
-      <c r="F6" s="392"/>
-      <c r="G6" s="391">
+      <c r="F6" s="391"/>
+      <c r="G6" s="390">
         <f>E6-F6</f>
         <v>20</v>
       </c>
-      <c r="H6" s="393"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="394"/>
+      <c r="H6" s="392"/>
+      <c r="I6" s="393"/>
+      <c r="J6" s="379"/>
+      <c r="K6" s="379"/>
+      <c r="L6" s="393"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="395">
+      <c r="A7" s="394">
         <f>A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="396" t="str">
+      <c r="B7" s="395" t="str">
         <f>Данные!A15</f>
         <v>Чистовой поддон</v>
       </c>
@@ -9706,30 +9716,30 @@
         <f>Данные!C15</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D7" s="397">
+      <c r="D7" s="396">
         <f>Данные!$B15</f>
         <v>24</v>
       </c>
-      <c r="E7" s="397">
+      <c r="E7" s="396">
         <v>20</v>
       </c>
-      <c r="F7" s="376"/>
-      <c r="G7" s="397">
+      <c r="F7" s="375"/>
+      <c r="G7" s="396">
         <f t="shared" ref="G7:G17" si="0">E7-F7</f>
         <v>20</v>
       </c>
-      <c r="H7" s="398"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="380"/>
-      <c r="K7" s="380"/>
-      <c r="L7" s="394"/>
+      <c r="H7" s="397"/>
+      <c r="I7" s="393"/>
+      <c r="J7" s="379"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="393"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="395">
+      <c r="A8" s="394">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="396" t="str">
+      <c r="B8" s="395" t="str">
         <f>Данные!A16</f>
         <v>Черновая форма</v>
       </c>
@@ -9737,30 +9747,30 @@
         <f>Данные!C16</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D8" s="397">
+      <c r="D8" s="396">
         <f>Данные!$B16</f>
         <v>30</v>
       </c>
-      <c r="E8" s="397">
+      <c r="E8" s="396">
         <v>30</v>
       </c>
-      <c r="F8" s="376"/>
-      <c r="G8" s="397">
+      <c r="F8" s="375"/>
+      <c r="G8" s="396">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H8" s="399"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="380"/>
-      <c r="K8" s="380"/>
-      <c r="L8" s="394"/>
+      <c r="H8" s="398"/>
+      <c r="I8" s="393"/>
+      <c r="J8" s="379"/>
+      <c r="K8" s="379"/>
+      <c r="L8" s="393"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="395">
+      <c r="A9" s="394">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B9" s="396" t="str">
+      <c r="B9" s="395" t="str">
         <f>Данные!A17</f>
         <v>Черновой поддон</v>
       </c>
@@ -9768,30 +9778,30 @@
         <f>Данные!C17</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D9" s="397">
+      <c r="D9" s="396">
         <f>Данные!$B17</f>
         <v>30</v>
       </c>
-      <c r="E9" s="397">
+      <c r="E9" s="396">
         <v>30</v>
       </c>
-      <c r="F9" s="376"/>
-      <c r="G9" s="397">
+      <c r="F9" s="375"/>
+      <c r="G9" s="396">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H9" s="399"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="400"/>
-      <c r="K9" s="380"/>
-      <c r="L9" s="394"/>
+      <c r="H9" s="398"/>
+      <c r="I9" s="393"/>
+      <c r="J9" s="399"/>
+      <c r="K9" s="379"/>
+      <c r="L9" s="393"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="395">
+      <c r="A10" s="394">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B10" s="396" t="str">
+      <c r="B10" s="395" t="str">
         <f>Данные!A18</f>
         <v>Горловое кольцо</v>
       </c>
@@ -9799,30 +9809,30 @@
         <f>Данные!C18</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D10" s="397">
+      <c r="D10" s="396">
         <f>Данные!$B18</f>
         <v>60</v>
       </c>
-      <c r="E10" s="397">
+      <c r="E10" s="396">
         <v>60</v>
       </c>
-      <c r="F10" s="376"/>
-      <c r="G10" s="397">
+      <c r="F10" s="375"/>
+      <c r="G10" s="396">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H10" s="399"/>
-      <c r="I10" s="400"/>
-      <c r="J10" s="400"/>
-      <c r="K10" s="400"/>
-      <c r="L10" s="394"/>
+      <c r="H10" s="398"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="399"/>
+      <c r="K10" s="399"/>
+      <c r="L10" s="393"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="395">
+      <c r="A11" s="394">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B11" s="396" t="str">
+      <c r="B11" s="395" t="str">
         <f>Данные!A19</f>
         <v>Направляющее кольцо</v>
       </c>
@@ -9830,30 +9840,30 @@
         <f>Данные!C19</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D11" s="397">
+      <c r="D11" s="396">
         <f>Данные!$B19</f>
         <v>80</v>
       </c>
-      <c r="E11" s="397">
+      <c r="E11" s="396">
         <v>80</v>
       </c>
-      <c r="F11" s="376"/>
-      <c r="G11" s="397">
+      <c r="F11" s="375"/>
+      <c r="G11" s="396">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H11" s="399"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="400"/>
-      <c r="K11" s="380"/>
-      <c r="L11" s="394"/>
+      <c r="H11" s="398"/>
+      <c r="I11" s="393"/>
+      <c r="J11" s="399"/>
+      <c r="K11" s="379"/>
+      <c r="L11" s="393"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="395">
+      <c r="A12" s="394">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B12" s="396" t="str">
+      <c r="B12" s="395" t="str">
         <f>Данные!A20</f>
         <v>Плунжер</v>
       </c>
@@ -9861,31 +9871,31 @@
         <f>Данные!C20</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D12" s="397">
+      <c r="D12" s="396">
         <f>Данные!$B20</f>
         <v>40</v>
       </c>
-      <c r="E12" s="397">
+      <c r="E12" s="396">
         <v>40</v>
       </c>
-      <c r="F12" s="401"/>
-      <c r="G12" s="397">
+      <c r="F12" s="400"/>
+      <c r="G12" s="396">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H12" s="399"/>
-      <c r="I12" s="400"/>
-      <c r="J12" s="400"/>
-      <c r="K12" s="400"/>
-      <c r="L12" s="394"/>
-      <c r="M12" s="402"/>
+      <c r="H12" s="398"/>
+      <c r="I12" s="399"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="393"/>
+      <c r="M12" s="401"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="395">
+      <c r="A13" s="394">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B13" s="396" t="str">
+      <c r="B13" s="395" t="str">
         <f>Данные!A21</f>
         <v>Втулка плунжера</v>
       </c>
@@ -9893,31 +9903,31 @@
         <f>Данные!C21</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D13" s="397">
+      <c r="D13" s="396">
         <f>Данные!$B21</f>
         <v>20</v>
       </c>
-      <c r="E13" s="397">
+      <c r="E13" s="396">
         <v>20</v>
       </c>
-      <c r="F13" s="403"/>
-      <c r="G13" s="397">
+      <c r="F13" s="402"/>
+      <c r="G13" s="396">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H13" s="399"/>
-      <c r="I13" s="400"/>
-      <c r="J13" s="400"/>
-      <c r="K13" s="400"/>
-      <c r="L13" s="394"/>
-      <c r="M13" s="402"/>
+      <c r="H13" s="398"/>
+      <c r="I13" s="399"/>
+      <c r="J13" s="399"/>
+      <c r="K13" s="399"/>
+      <c r="L13" s="393"/>
+      <c r="M13" s="401"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="395">
+      <c r="A14" s="394">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B14" s="396" t="str">
+      <c r="B14" s="395" t="str">
         <f>Данные!A22</f>
         <v>Хватки</v>
       </c>
@@ -9925,32 +9935,32 @@
         <f>Данные!C22</f>
         <v>0</v>
       </c>
-      <c r="D14" s="397">
+      <c r="D14" s="396">
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="466">
+      <c r="E14" s="453">
         <v>0</v>
       </c>
-      <c r="F14" s="376"/>
-      <c r="G14" s="397">
+      <c r="F14" s="375"/>
+      <c r="G14" s="396">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="399" t="s">
+      <c r="H14" s="398" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="400"/>
-      <c r="J14" s="400"/>
-      <c r="K14" s="400"/>
-      <c r="L14" s="394"/>
+      <c r="I14" s="399"/>
+      <c r="J14" s="399"/>
+      <c r="K14" s="399"/>
+      <c r="L14" s="393"/>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="395">
+      <c r="A15" s="394">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B15" s="396" t="str">
+      <c r="B15" s="395" t="str">
         <f>Данные!A23</f>
         <v>Воронка</v>
       </c>
@@ -9958,30 +9968,30 @@
         <f>Данные!C23</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D15" s="397">
+      <c r="D15" s="396">
         <f>Данные!$B23</f>
         <v>20</v>
       </c>
-      <c r="E15" s="397">
+      <c r="E15" s="396">
         <v>20</v>
       </c>
-      <c r="F15" s="401"/>
-      <c r="G15" s="397">
+      <c r="F15" s="400"/>
+      <c r="G15" s="396">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H15" s="399"/>
-      <c r="I15" s="400"/>
-      <c r="J15" s="400"/>
-      <c r="K15" s="400"/>
-      <c r="L15" s="394"/>
+      <c r="H15" s="398"/>
+      <c r="I15" s="399"/>
+      <c r="J15" s="399"/>
+      <c r="K15" s="399"/>
+      <c r="L15" s="393"/>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="395">
+      <c r="A16" s="394">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B16" s="396" t="str">
+      <c r="B16" s="395" t="str">
         <f>Данные!A24</f>
         <v>Плита охлаждения</v>
       </c>
@@ -9989,610 +9999,759 @@
         <f>Данные!C24</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D16" s="397">
+      <c r="D16" s="396">
         <f>Данные!$B24</f>
         <v>8</v>
       </c>
-      <c r="E16" s="397">
+      <c r="E16" s="396">
         <v>8</v>
       </c>
-      <c r="F16" s="376"/>
-      <c r="G16" s="397">
+      <c r="F16" s="375"/>
+      <c r="G16" s="396">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H16" s="399"/>
-      <c r="I16" s="400"/>
-      <c r="J16" s="400"/>
-      <c r="K16" s="400"/>
-      <c r="L16" s="394"/>
+      <c r="H16" s="398"/>
+      <c r="I16" s="399"/>
+      <c r="J16" s="399"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="393"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="404">
+      <c r="A17" s="403">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B17" s="405" t="str">
+      <c r="B17" s="404" t="str">
         <f>Данные!A25</f>
         <v>Дутьевая головка</v>
       </c>
-      <c r="C17" s="406" t="str">
+      <c r="C17" s="405" t="str">
         <f>Данные!C25</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="D17" s="407">
+      <c r="D17" s="406">
         <f>Данные!$B25</f>
         <v>20</v>
       </c>
-      <c r="E17" s="407">
+      <c r="E17" s="406">
         <v>30</v>
       </c>
-      <c r="F17" s="408"/>
-      <c r="G17" s="407">
+      <c r="F17" s="407"/>
+      <c r="G17" s="406">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H17" s="409"/>
-      <c r="I17" s="400"/>
-      <c r="J17" s="410"/>
-      <c r="K17" s="400"/>
-      <c r="L17" s="394"/>
+      <c r="H17" s="408"/>
+      <c r="I17" s="399"/>
+      <c r="J17" s="409"/>
+      <c r="K17" s="399"/>
+      <c r="L17" s="393"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="411"/>
-      <c r="B18" s="412"/>
-      <c r="C18" s="380"/>
-      <c r="D18" s="413"/>
-      <c r="E18" s="380"/>
-      <c r="F18" s="380"/>
-      <c r="G18" s="380"/>
-      <c r="H18" s="380"/>
-      <c r="I18" s="380"/>
-      <c r="J18" s="380"/>
+      <c r="A18" s="410"/>
+      <c r="B18" s="411"/>
+      <c r="C18" s="379"/>
+      <c r="D18" s="412"/>
+      <c r="E18" s="379"/>
+      <c r="F18" s="379"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="379"/>
+      <c r="I18" s="379"/>
+      <c r="J18" s="379"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="380"/>
-      <c r="B19" s="414" t="s">
+      <c r="A19" s="379"/>
+      <c r="B19" s="413" t="s">
         <v>117</v>
       </c>
       <c r="C19" s="361"/>
       <c r="D19" s="361"/>
       <c r="E19" s="361"/>
       <c r="F19" s="361"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="380"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="415"/>
-      <c r="K19" s="415"/>
-      <c r="L19" s="415"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="379"/>
+      <c r="I19" s="379"/>
+      <c r="J19" s="414"/>
+      <c r="K19" s="414"/>
+      <c r="L19" s="414"/>
     </row>
     <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="384" t="s">
+      <c r="A20" s="383" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="385" t="s">
+      <c r="B20" s="384" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="385" t="s">
+      <c r="C20" s="384" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="385" t="s">
+      <c r="D20" s="384" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="385" t="s">
+      <c r="E20" s="384" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="385" t="s">
+      <c r="F20" s="384" t="s">
         <v>123</v>
       </c>
-      <c r="G20" s="416" t="s">
+      <c r="G20" s="415" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="417" t="s">
+      <c r="H20" s="416" t="s">
         <v>125</v>
       </c>
-      <c r="I20" s="418" t="s">
+      <c r="I20" s="417" t="s">
         <v>126</v>
       </c>
-      <c r="J20" s="388"/>
-      <c r="K20" s="388"/>
-      <c r="L20" s="388"/>
+      <c r="J20" s="417" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="387"/>
+      <c r="L20" s="387"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="419">
+      <c r="A21" s="418">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="646" t="s">
+      <c r="B21" s="478" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="421">
+      <c r="C21" s="420">
         <v>44010</v>
       </c>
-      <c r="D21" s="420">
+      <c r="D21" s="419">
         <v>44013</v>
       </c>
-      <c r="E21" s="422">
+      <c r="E21" s="421">
         <v>435936</v>
       </c>
-      <c r="F21" s="422">
+      <c r="F21" s="421">
         <v>461100</v>
       </c>
-      <c r="G21" s="423">
-        <f>F21/A$21</f>
+      <c r="G21" s="422">
+        <f t="shared" ref="G21:G29" si="2">F21/A$21</f>
         <v>2.7446428571428573E-2</v>
       </c>
-      <c r="H21" s="424">
+      <c r="H21" s="423">
         <f>A21-F21</f>
         <v>16338900</v>
       </c>
-      <c r="I21" s="425">
+      <c r="I21" s="424">
         <f>1-G21</f>
         <v>0.97255357142857146</v>
       </c>
-      <c r="J21" s="426"/>
-      <c r="K21" s="400"/>
-      <c r="L21" s="400"/>
+      <c r="J21" s="480"/>
+      <c r="K21" s="399"/>
+      <c r="L21" s="399"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="427"/>
-      <c r="B22" s="647" t="s">
+      <c r="A22" s="426"/>
+      <c r="B22" s="479" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="428">
+      <c r="C22" s="427">
         <v>44013</v>
       </c>
-      <c r="D22" s="428">
+      <c r="D22" s="427">
         <v>44013</v>
       </c>
-      <c r="E22" s="429">
+      <c r="E22" s="428">
         <v>297312</v>
       </c>
-      <c r="F22" s="429">
+      <c r="F22" s="428">
         <v>312883</v>
       </c>
-      <c r="G22" s="423">
-        <f>F22/A$21</f>
+      <c r="G22" s="422">
+        <f t="shared" si="2"/>
         <v>1.8623988095238096E-2</v>
       </c>
-      <c r="H22" s="430">
-        <f>H21-F22</f>
+      <c r="H22" s="429">
+        <f t="shared" ref="H22:I24" si="3">H21-F22</f>
         <v>16026017</v>
       </c>
-      <c r="I22" s="431">
-        <f>I21-G22</f>
+      <c r="I22" s="430">
+        <f t="shared" si="3"/>
         <v>0.95392958333333333</v>
       </c>
-      <c r="J22" s="380"/>
-      <c r="K22" s="380"/>
-      <c r="L22" s="380"/>
+      <c r="J22" s="481"/>
+      <c r="K22" s="379"/>
+      <c r="L22" s="379"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="432"/>
-      <c r="B23" s="433"/>
-      <c r="C23" s="433"/>
-      <c r="D23" s="433"/>
-      <c r="E23" s="434"/>
-      <c r="F23" s="434"/>
-      <c r="G23" s="435"/>
-      <c r="H23" s="436"/>
-      <c r="I23" s="437"/>
-      <c r="J23" s="426"/>
-      <c r="K23" s="400"/>
-      <c r="L23" s="400"/>
+      <c r="A23" s="431"/>
+      <c r="B23" s="478" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="432">
+        <v>44080</v>
+      </c>
+      <c r="D23" s="432">
+        <v>44105</v>
+      </c>
+      <c r="E23" s="433">
+        <v>590976</v>
+      </c>
+      <c r="F23" s="433">
+        <v>623750</v>
+      </c>
+      <c r="G23" s="422">
+        <f t="shared" si="2"/>
+        <v>3.712797619047619E-2</v>
+      </c>
+      <c r="H23" s="429">
+        <f t="shared" si="3"/>
+        <v>15402267</v>
+      </c>
+      <c r="I23" s="430">
+        <f t="shared" si="3"/>
+        <v>0.91680160714285719</v>
+      </c>
+      <c r="J23" s="482">
+        <v>416</v>
+      </c>
+      <c r="K23" s="399"/>
+      <c r="L23" s="399"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="432"/>
-      <c r="B24" s="372"/>
-      <c r="C24" s="372"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
-      <c r="G24" s="372"/>
-      <c r="H24" s="372"/>
-      <c r="I24" s="438"/>
-      <c r="J24" s="426"/>
-      <c r="K24" s="426"/>
-      <c r="L24" s="380"/>
+      <c r="A24" s="431"/>
+      <c r="B24" s="479" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="432">
+        <v>44081</v>
+      </c>
+      <c r="D24" s="432">
+        <v>44105</v>
+      </c>
+      <c r="E24" s="433">
+        <v>308256</v>
+      </c>
+      <c r="F24" s="433">
+        <v>317157</v>
+      </c>
+      <c r="G24" s="422">
+        <f t="shared" si="2"/>
+        <v>1.8878392857142857E-2</v>
+      </c>
+      <c r="H24" s="429">
+        <f t="shared" si="3"/>
+        <v>15085110</v>
+      </c>
+      <c r="I24" s="430">
+        <f t="shared" si="3"/>
+        <v>0.89792321428571431</v>
+      </c>
+      <c r="J24" s="483">
+        <v>415</v>
+      </c>
+      <c r="K24" s="425"/>
+      <c r="L24" s="379"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="432"/>
-      <c r="B25" s="433"/>
-      <c r="C25" s="433"/>
-      <c r="D25" s="433"/>
-      <c r="E25" s="434"/>
-      <c r="F25" s="434"/>
-      <c r="G25" s="439"/>
-      <c r="H25" s="436"/>
-      <c r="I25" s="437"/>
-      <c r="J25" s="426"/>
-      <c r="K25" s="440"/>
-      <c r="L25" s="380"/>
+      <c r="A25" s="431"/>
+      <c r="B25" s="478" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="432">
+        <v>44115</v>
+      </c>
+      <c r="D25" s="432">
+        <v>44137</v>
+      </c>
+      <c r="E25" s="433">
+        <v>589152</v>
+      </c>
+      <c r="F25" s="433">
+        <v>625766</v>
+      </c>
+      <c r="G25" s="422">
+        <f t="shared" si="2"/>
+        <v>3.7247976190476192E-2</v>
+      </c>
+      <c r="H25" s="429">
+        <f t="shared" ref="H25" si="4">H24-F25</f>
+        <v>14459344</v>
+      </c>
+      <c r="I25" s="430">
+        <f t="shared" ref="I25" si="5">I24-G25</f>
+        <v>0.86067523809523816</v>
+      </c>
+      <c r="J25" s="482">
+        <v>415</v>
+      </c>
+      <c r="K25" s="434"/>
+      <c r="L25" s="379"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="432"/>
-      <c r="B26" s="433"/>
-      <c r="C26" s="433"/>
-      <c r="D26" s="433"/>
-      <c r="E26" s="434"/>
-      <c r="F26" s="434"/>
-      <c r="G26" s="439"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="437"/>
-      <c r="J26" s="426"/>
-      <c r="K26" s="426"/>
-      <c r="L26" s="380"/>
+      <c r="A26" s="431"/>
+      <c r="B26" s="479" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="432">
+        <v>44116</v>
+      </c>
+      <c r="D26" s="432">
+        <v>44137</v>
+      </c>
+      <c r="E26" s="433">
+        <v>155040</v>
+      </c>
+      <c r="F26" s="433">
+        <v>159425</v>
+      </c>
+      <c r="G26" s="422">
+        <f t="shared" si="2"/>
+        <v>9.4895833333333325E-3</v>
+      </c>
+      <c r="H26" s="429">
+        <f t="shared" ref="H26" si="6">H25-F26</f>
+        <v>14299919</v>
+      </c>
+      <c r="I26" s="430">
+        <f t="shared" ref="I26" si="7">I25-G26</f>
+        <v>0.85118565476190478</v>
+      </c>
+      <c r="J26" s="482">
+        <v>414</v>
+      </c>
+      <c r="K26" s="425"/>
+      <c r="L26" s="379"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="432"/>
-      <c r="B27" s="433"/>
-      <c r="C27" s="433"/>
-      <c r="D27" s="433"/>
-      <c r="E27" s="436"/>
-      <c r="F27" s="434"/>
-      <c r="G27" s="439"/>
-      <c r="H27" s="436"/>
-      <c r="I27" s="437"/>
-      <c r="J27" s="426"/>
-      <c r="K27" s="426"/>
-      <c r="L27" s="380"/>
+      <c r="A27" s="431"/>
+      <c r="B27" s="478" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="432">
+        <v>44158</v>
+      </c>
+      <c r="D27" s="432">
+        <v>44166</v>
+      </c>
+      <c r="E27" s="433">
+        <v>1079808</v>
+      </c>
+      <c r="F27" s="433">
+        <v>1120052</v>
+      </c>
+      <c r="G27" s="422">
+        <f t="shared" si="2"/>
+        <v>6.6669761904761898E-2</v>
+      </c>
+      <c r="H27" s="429">
+        <f t="shared" ref="H27" si="8">H26-F27</f>
+        <v>13179867</v>
+      </c>
+      <c r="I27" s="430">
+        <f t="shared" ref="I27" si="9">I26-G27</f>
+        <v>0.78451589285714285</v>
+      </c>
+      <c r="J27" s="482">
+        <v>415</v>
+      </c>
+      <c r="K27" s="425"/>
+      <c r="L27" s="379"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="432"/>
-      <c r="B28" s="433"/>
-      <c r="C28" s="433"/>
-      <c r="D28" s="433"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="434"/>
-      <c r="G28" s="439"/>
-      <c r="H28" s="436"/>
-      <c r="I28" s="437"/>
-      <c r="J28" s="426"/>
-      <c r="K28" s="426"/>
-      <c r="L28" s="380"/>
+      <c r="A28" s="431"/>
+      <c r="B28" s="478" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="432">
+        <v>44194</v>
+      </c>
+      <c r="D28" s="432">
+        <v>43834</v>
+      </c>
+      <c r="E28" s="433">
+        <v>1101696</v>
+      </c>
+      <c r="F28" s="433">
+        <v>1132447</v>
+      </c>
+      <c r="G28" s="422">
+        <f t="shared" si="2"/>
+        <v>6.7407559523809529E-2</v>
+      </c>
+      <c r="H28" s="429">
+        <f t="shared" ref="H28" si="10">H27-F28</f>
+        <v>12047420</v>
+      </c>
+      <c r="I28" s="430">
+        <f t="shared" ref="I28" si="11">I27-G28</f>
+        <v>0.71710833333333335</v>
+      </c>
+      <c r="J28" s="482">
+        <v>414</v>
+      </c>
+      <c r="K28" s="425"/>
+      <c r="L28" s="379"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="432"/>
-      <c r="B29" s="433"/>
-      <c r="C29" s="433"/>
-      <c r="D29" s="372"/>
-      <c r="E29" s="372"/>
-      <c r="F29" s="434"/>
-      <c r="G29" s="441"/>
-      <c r="H29" s="436"/>
-      <c r="I29" s="442"/>
-      <c r="J29" s="426"/>
-      <c r="K29" s="426"/>
-      <c r="L29" s="380"/>
+      <c r="A29" s="431"/>
+      <c r="B29" s="479" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="432">
+        <v>44274</v>
+      </c>
+      <c r="D29" s="432">
+        <v>44287</v>
+      </c>
+      <c r="E29" s="433">
+        <v>300960</v>
+      </c>
+      <c r="F29" s="433">
+        <v>315948</v>
+      </c>
+      <c r="G29" s="422">
+        <f t="shared" si="2"/>
+        <v>1.8806428571428571E-2</v>
+      </c>
+      <c r="H29" s="429">
+        <f t="shared" ref="H29" si="12">H28-F29</f>
+        <v>11731472</v>
+      </c>
+      <c r="I29" s="430">
+        <f t="shared" ref="I29" si="13">I28-G29</f>
+        <v>0.69830190476190479</v>
+      </c>
+      <c r="J29" s="484">
+        <v>412</v>
+      </c>
+      <c r="K29" s="425"/>
+      <c r="L29" s="379"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="432"/>
-      <c r="B30" s="433"/>
-      <c r="C30" s="433"/>
-      <c r="D30" s="372"/>
-      <c r="E30" s="372"/>
-      <c r="F30" s="434"/>
-      <c r="G30" s="439"/>
-      <c r="H30" s="436"/>
-      <c r="I30" s="442"/>
-      <c r="J30" s="426"/>
-      <c r="K30" s="426"/>
-      <c r="L30" s="380"/>
+      <c r="A30" s="431"/>
+      <c r="B30" s="432"/>
+      <c r="C30" s="432"/>
+      <c r="D30" s="432"/>
+      <c r="E30" s="433"/>
+      <c r="F30" s="433"/>
+      <c r="G30" s="422"/>
+      <c r="H30" s="429"/>
+      <c r="I30" s="430"/>
+      <c r="J30" s="484"/>
+      <c r="K30" s="425"/>
+      <c r="L30" s="379"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="443"/>
-      <c r="B31" s="444"/>
-      <c r="C31" s="444"/>
-      <c r="D31" s="445"/>
-      <c r="E31" s="445"/>
-      <c r="F31" s="446"/>
-      <c r="G31" s="447"/>
-      <c r="H31" s="448"/>
-      <c r="I31" s="449"/>
-      <c r="J31" s="380"/>
-      <c r="K31" s="380"/>
-      <c r="L31" s="380"/>
+      <c r="A31" s="435"/>
+      <c r="B31" s="436"/>
+      <c r="C31" s="432"/>
+      <c r="D31" s="432"/>
+      <c r="E31" s="433"/>
+      <c r="F31" s="433"/>
+      <c r="G31" s="422"/>
+      <c r="H31" s="429"/>
+      <c r="I31" s="430"/>
+      <c r="J31" s="485"/>
+      <c r="K31" s="379"/>
+      <c r="L31" s="379"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="450" t="s">
+      <c r="A32" s="437" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="451"/>
-      <c r="C32" s="451"/>
-      <c r="D32" s="452"/>
-      <c r="E32" s="489">
+      <c r="B32" s="438"/>
+      <c r="C32" s="438"/>
+      <c r="D32" s="439"/>
+      <c r="E32" s="476">
         <f>SUM(E21:E31)</f>
-        <v>733248</v>
-      </c>
-      <c r="F32" s="490">
+        <v>4859136</v>
+      </c>
+      <c r="F32" s="477">
         <f>SUM(F21:F31)</f>
-        <v>773983</v>
-      </c>
-      <c r="G32" s="453">
+        <v>5068528</v>
+      </c>
+      <c r="G32" s="440">
         <f>SUM(G21:G31)</f>
-        <v>4.6070416666666669E-2</v>
-      </c>
-      <c r="H32" s="454">
+        <v>0.30169809523809521</v>
+      </c>
+      <c r="H32" s="441">
         <f>A21-F32</f>
-        <v>16026017</v>
-      </c>
-      <c r="I32" s="455">
+        <v>11731472</v>
+      </c>
+      <c r="I32" s="442">
         <f>1-G32</f>
-        <v>0.95392958333333333</v>
-      </c>
-      <c r="J32" s="456"/>
-      <c r="K32" s="456"/>
-      <c r="L32" s="456"/>
+        <v>0.69830190476190479</v>
+      </c>
+      <c r="J32" s="442"/>
+      <c r="K32" s="443"/>
+      <c r="L32" s="443"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="380"/>
-      <c r="B35" s="380"/>
-      <c r="C35" s="380"/>
-      <c r="D35" s="380"/>
-      <c r="E35" s="380"/>
-      <c r="F35" s="380"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="380"/>
-      <c r="I35" s="380"/>
-      <c r="J35" s="380"/>
+      <c r="A35" s="379"/>
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
+      <c r="D35" s="379"/>
+      <c r="E35" s="379"/>
+      <c r="F35" s="379"/>
+      <c r="G35" s="379"/>
+      <c r="H35" s="379"/>
+      <c r="I35" s="379"/>
+      <c r="J35" s="379"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="512" t="s">
+      <c r="A36" s="507" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="512"/>
-      <c r="C36" s="512"/>
-      <c r="D36" s="512"/>
-      <c r="E36" s="380"/>
-      <c r="F36" s="380"/>
-      <c r="G36" s="380"/>
-      <c r="H36" s="380"/>
-      <c r="I36" s="380"/>
-      <c r="J36" s="380"/>
+      <c r="B36" s="507"/>
+      <c r="C36" s="507"/>
+      <c r="D36" s="507"/>
+      <c r="E36" s="379"/>
+      <c r="F36" s="379"/>
+      <c r="G36" s="379"/>
+      <c r="H36" s="379"/>
+      <c r="I36" s="379"/>
+      <c r="J36" s="379"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="513" t="s">
+      <c r="A37" s="508" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="513"/>
-      <c r="C37" s="457" t="s">
+      <c r="B37" s="508"/>
+      <c r="C37" s="444" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="457" t="s">
+      <c r="D37" s="444" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="380"/>
-      <c r="F37" s="380"/>
-      <c r="G37" s="380"/>
-      <c r="H37" s="380"/>
-      <c r="I37" s="380"/>
-      <c r="J37" s="380"/>
+      <c r="E37" s="379"/>
+      <c r="F37" s="379"/>
+      <c r="G37" s="379"/>
+      <c r="H37" s="379"/>
+      <c r="I37" s="379"/>
+      <c r="J37" s="379"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="514">
+      <c r="A38" s="509">
         <f>A21-F32</f>
-        <v>16026017</v>
-      </c>
-      <c r="B38" s="515"/>
-      <c r="C38" s="458">
+        <v>11731472</v>
+      </c>
+      <c r="B38" s="510"/>
+      <c r="C38" s="445">
         <f>1-G32</f>
-        <v>0.95392958333333333</v>
-      </c>
-      <c r="D38" s="459">
+        <v>0.69830190476190479</v>
+      </c>
+      <c r="D38" s="446">
         <f>(C38/0.8)*100</f>
-        <v>119.24119791666665</v>
-      </c>
-      <c r="E38" s="460" t="s">
+        <v>87.287738095238097</v>
+      </c>
+      <c r="E38" s="447" t="s">
         <v>132</v>
       </c>
-      <c r="F38" s="460"/>
-      <c r="G38" s="460"/>
-      <c r="H38" s="460"/>
-      <c r="I38" s="460"/>
-      <c r="J38" s="460"/>
+      <c r="F38" s="447"/>
+      <c r="G38" s="447"/>
+      <c r="H38" s="447"/>
+      <c r="I38" s="447"/>
+      <c r="J38" s="447"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="380"/>
-      <c r="B39" s="380"/>
-      <c r="C39" s="380"/>
-      <c r="D39" s="380"/>
-      <c r="E39" s="380"/>
-      <c r="F39" s="380"/>
+      <c r="A39" s="379"/>
+      <c r="B39" s="379"/>
+      <c r="C39" s="379"/>
+      <c r="D39" s="379"/>
+      <c r="E39" s="379"/>
+      <c r="F39" s="379"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="380"/>
-      <c r="B40" s="380"/>
-      <c r="C40" s="380"/>
-      <c r="D40" s="380"/>
-      <c r="E40" s="380"/>
-      <c r="F40" s="380"/>
-      <c r="G40" s="380"/>
-      <c r="H40" s="380"/>
-      <c r="I40" s="380"/>
-      <c r="J40" s="380"/>
+      <c r="A40" s="379"/>
+      <c r="B40" s="379"/>
+      <c r="C40" s="379"/>
+      <c r="D40" s="379"/>
+      <c r="E40" s="379"/>
+      <c r="F40" s="379"/>
+      <c r="G40" s="379"/>
+      <c r="H40" s="379"/>
+      <c r="I40" s="379"/>
+      <c r="J40" s="379"/>
       <c r="K40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="380"/>
-      <c r="B41" s="461"/>
-      <c r="C41" s="461"/>
-      <c r="D41" s="380"/>
-      <c r="E41" s="380"/>
-      <c r="F41" s="380"/>
-      <c r="G41" s="380"/>
-      <c r="H41" s="380"/>
-      <c r="I41" s="380"/>
-      <c r="J41" s="380"/>
+      <c r="A41" s="379"/>
+      <c r="B41" s="448"/>
+      <c r="C41" s="448"/>
+      <c r="D41" s="379"/>
+      <c r="E41" s="379"/>
+      <c r="F41" s="379"/>
+      <c r="G41" s="379"/>
+      <c r="H41" s="379"/>
+      <c r="I41" s="379"/>
+      <c r="J41" s="379"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="462"/>
-      <c r="B42" s="462"/>
-      <c r="C42" s="462"/>
-      <c r="D42" s="462"/>
-      <c r="E42" s="462"/>
-      <c r="F42" s="462"/>
-      <c r="G42" s="462"/>
-      <c r="H42" s="462"/>
-      <c r="I42" s="516"/>
-      <c r="J42" s="517"/>
+      <c r="A42" s="449"/>
+      <c r="B42" s="449"/>
+      <c r="C42" s="449"/>
+      <c r="D42" s="449"/>
+      <c r="E42" s="449"/>
+      <c r="F42" s="449"/>
+      <c r="G42" s="449"/>
+      <c r="H42" s="449"/>
+      <c r="I42" s="511"/>
+      <c r="J42" s="512"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="463"/>
-      <c r="B43" s="464"/>
-      <c r="C43" s="464"/>
-      <c r="D43" s="380"/>
-      <c r="E43" s="380"/>
-      <c r="F43" s="464"/>
-      <c r="G43" s="410"/>
-      <c r="H43" s="464"/>
+      <c r="A43" s="450"/>
+      <c r="B43" s="451"/>
+      <c r="C43" s="451"/>
+      <c r="D43" s="379"/>
+      <c r="E43" s="379"/>
+      <c r="F43" s="451"/>
+      <c r="G43" s="409"/>
+      <c r="H43" s="451"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="463"/>
-      <c r="B44" s="464"/>
-      <c r="C44" s="464"/>
-      <c r="D44" s="464"/>
-      <c r="E44" s="464"/>
-      <c r="F44" s="464"/>
-      <c r="G44" s="410"/>
-      <c r="H44" s="464"/>
+      <c r="A44" s="450"/>
+      <c r="B44" s="451"/>
+      <c r="C44" s="451"/>
+      <c r="D44" s="451"/>
+      <c r="E44" s="451"/>
+      <c r="F44" s="451"/>
+      <c r="G44" s="409"/>
+      <c r="H44" s="451"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="463"/>
-      <c r="B45" s="464"/>
-      <c r="C45" s="464"/>
-      <c r="D45" s="380"/>
-      <c r="E45" s="380"/>
-      <c r="F45" s="464"/>
-      <c r="G45" s="410"/>
-      <c r="H45" s="464"/>
+      <c r="A45" s="450"/>
+      <c r="B45" s="451"/>
+      <c r="C45" s="451"/>
+      <c r="D45" s="379"/>
+      <c r="E45" s="379"/>
+      <c r="F45" s="451"/>
+      <c r="G45" s="409"/>
+      <c r="H45" s="451"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="463"/>
-      <c r="B46" s="464"/>
-      <c r="C46" s="464"/>
-      <c r="D46" s="464"/>
-      <c r="E46" s="464"/>
-      <c r="F46" s="464"/>
-      <c r="G46" s="410"/>
-      <c r="H46" s="464"/>
+      <c r="A46" s="450"/>
+      <c r="B46" s="451"/>
+      <c r="C46" s="451"/>
+      <c r="D46" s="451"/>
+      <c r="E46" s="451"/>
+      <c r="F46" s="451"/>
+      <c r="G46" s="409"/>
+      <c r="H46" s="451"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="463"/>
-      <c r="B47" s="464"/>
-      <c r="C47" s="464"/>
-      <c r="D47" s="380"/>
-      <c r="E47" s="380"/>
-      <c r="F47" s="464"/>
-      <c r="G47" s="410"/>
-      <c r="H47" s="464"/>
+      <c r="A47" s="450"/>
+      <c r="B47" s="451"/>
+      <c r="C47" s="451"/>
+      <c r="D47" s="379"/>
+      <c r="E47" s="379"/>
+      <c r="F47" s="451"/>
+      <c r="G47" s="409"/>
+      <c r="H47" s="451"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="463"/>
-      <c r="B48" s="464"/>
-      <c r="C48" s="400"/>
-      <c r="D48" s="465"/>
-      <c r="E48" s="465"/>
-      <c r="F48" s="400"/>
-      <c r="G48" s="400"/>
-      <c r="H48" s="400"/>
+      <c r="A48" s="450"/>
+      <c r="B48" s="451"/>
+      <c r="C48" s="399"/>
+      <c r="D48" s="452"/>
+      <c r="E48" s="452"/>
+      <c r="F48" s="399"/>
+      <c r="G48" s="399"/>
+      <c r="H48" s="399"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="463"/>
-      <c r="B49" s="464"/>
-      <c r="C49" s="464"/>
-      <c r="D49" s="464"/>
-      <c r="E49" s="464"/>
-      <c r="F49" s="464"/>
-      <c r="G49" s="410"/>
-      <c r="H49" s="464"/>
+      <c r="A49" s="450"/>
+      <c r="B49" s="451"/>
+      <c r="C49" s="451"/>
+      <c r="D49" s="451"/>
+      <c r="E49" s="451"/>
+      <c r="F49" s="451"/>
+      <c r="G49" s="409"/>
+      <c r="H49" s="451"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="463"/>
-      <c r="B50" s="464"/>
-      <c r="C50" s="464"/>
-      <c r="D50" s="464"/>
-      <c r="E50" s="464"/>
-      <c r="F50" s="464"/>
-      <c r="G50" s="410"/>
-      <c r="H50" s="464"/>
+      <c r="A50" s="450"/>
+      <c r="B50" s="451"/>
+      <c r="C50" s="451"/>
+      <c r="D50" s="451"/>
+      <c r="E50" s="451"/>
+      <c r="F50" s="451"/>
+      <c r="G50" s="409"/>
+      <c r="H50" s="451"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="463"/>
-      <c r="B51" s="464"/>
-      <c r="C51" s="464"/>
-      <c r="D51" s="380"/>
-      <c r="E51" s="380"/>
-      <c r="F51" s="464"/>
-      <c r="G51" s="410"/>
-      <c r="H51" s="464"/>
+      <c r="A51" s="450"/>
+      <c r="B51" s="451"/>
+      <c r="C51" s="451"/>
+      <c r="D51" s="379"/>
+      <c r="E51" s="379"/>
+      <c r="F51" s="451"/>
+      <c r="G51" s="409"/>
+      <c r="H51" s="451"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="380"/>
-      <c r="B52" s="509"/>
-      <c r="C52" s="509"/>
-      <c r="D52" s="510"/>
-      <c r="E52" s="460"/>
-      <c r="F52" s="380"/>
-      <c r="G52" s="380"/>
-      <c r="H52" s="380"/>
-      <c r="I52" s="380"/>
-      <c r="J52" s="380"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="504"/>
+      <c r="C52" s="504"/>
+      <c r="D52" s="505"/>
+      <c r="E52" s="447"/>
+      <c r="F52" s="379"/>
+      <c r="G52" s="379"/>
+      <c r="H52" s="379"/>
+      <c r="I52" s="379"/>
+      <c r="J52" s="379"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="462"/>
-      <c r="B53" s="462"/>
-      <c r="C53" s="462"/>
-      <c r="D53" s="462"/>
-      <c r="E53" s="462"/>
-      <c r="F53" s="462"/>
-      <c r="G53" s="462"/>
-      <c r="H53" s="462"/>
-      <c r="I53" s="516"/>
-      <c r="J53" s="517"/>
+      <c r="A53" s="449"/>
+      <c r="B53" s="449"/>
+      <c r="C53" s="449"/>
+      <c r="D53" s="449"/>
+      <c r="E53" s="449"/>
+      <c r="F53" s="449"/>
+      <c r="G53" s="449"/>
+      <c r="H53" s="449"/>
+      <c r="I53" s="511"/>
+      <c r="J53" s="512"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="463"/>
-      <c r="B54" s="380"/>
-      <c r="C54" s="380"/>
-      <c r="D54" s="380"/>
-      <c r="E54" s="380"/>
-      <c r="F54" s="410"/>
-      <c r="G54" s="410"/>
-      <c r="H54" s="464"/>
-      <c r="I54" s="518"/>
-      <c r="J54" s="518"/>
+      <c r="A54" s="450"/>
+      <c r="B54" s="379"/>
+      <c r="C54" s="379"/>
+      <c r="D54" s="379"/>
+      <c r="E54" s="379"/>
+      <c r="F54" s="409"/>
+      <c r="G54" s="409"/>
+      <c r="H54" s="451"/>
+      <c r="I54" s="513"/>
+      <c r="J54" s="513"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="463"/>
-      <c r="B55" s="380"/>
-      <c r="C55" s="380"/>
-      <c r="D55" s="400"/>
-      <c r="E55" s="400"/>
-      <c r="F55" s="400"/>
-      <c r="G55" s="400"/>
-      <c r="H55" s="400"/>
-      <c r="I55" s="518"/>
-      <c r="J55" s="518"/>
+      <c r="A55" s="450"/>
+      <c r="B55" s="379"/>
+      <c r="C55" s="379"/>
+      <c r="D55" s="399"/>
+      <c r="E55" s="399"/>
+      <c r="F55" s="399"/>
+      <c r="G55" s="399"/>
+      <c r="H55" s="399"/>
+      <c r="I55" s="513"/>
+      <c r="J55" s="513"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="380"/>
-      <c r="B56" s="380"/>
-      <c r="C56" s="380"/>
-      <c r="D56" s="380"/>
-      <c r="E56" s="380"/>
-      <c r="F56" s="380"/>
-      <c r="G56" s="380"/>
-      <c r="H56" s="380"/>
+      <c r="A56" s="379"/>
+      <c r="B56" s="379"/>
+      <c r="C56" s="379"/>
+      <c r="D56" s="379"/>
+      <c r="E56" s="379"/>
+      <c r="F56" s="379"/>
+      <c r="G56" s="379"/>
+      <c r="H56" s="379"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="516"/>
-      <c r="C61" s="517"/>
+      <c r="B61" s="511"/>
+      <c r="C61" s="512"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="516"/>
-      <c r="C68" s="517"/>
+      <c r="B68" s="511"/>
+      <c r="C68" s="512"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10610,7 +10769,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10621,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -10637,7 +10796,7 @@
     <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="474" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -10646,7 +10805,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="474" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
         <v>147</v>
       </c>
@@ -10655,7 +10814,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="474" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
         <v>102</v>
       </c>
@@ -10664,72 +10823,72 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="487" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G6" s="488"/>
+    <row r="5" spans="1:11" s="474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="474" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G6" s="475"/>
       <c r="H6" s="309" t="s">
         <v>100</v>
       </c>
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="487" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="474" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="487" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="474" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="488"/>
+      <c r="H8" s="475"/>
       <c r="I8" s="309" t="s">
         <v>78</v>
       </c>
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="526" t="s">
+      <c r="A11" s="521" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="526"/>
-      <c r="C11" s="526"/>
-      <c r="D11" s="526"/>
-      <c r="E11" s="526"/>
-      <c r="F11" s="526"/>
-      <c r="G11" s="526"/>
-      <c r="H11" s="526"/>
-      <c r="I11" s="526"/>
-      <c r="J11" s="526"/>
+      <c r="B11" s="521"/>
+      <c r="C11" s="521"/>
+      <c r="D11" s="521"/>
+      <c r="E11" s="521"/>
+      <c r="F11" s="521"/>
+      <c r="G11" s="521"/>
+      <c r="H11" s="521"/>
+      <c r="I11" s="521"/>
+      <c r="J11" s="521"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="525" t="s">
+      <c r="A12" s="520" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="525"/>
-      <c r="C12" s="525"/>
-      <c r="D12" s="525"/>
-      <c r="E12" s="525"/>
-      <c r="F12" s="525"/>
-      <c r="G12" s="525"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="525"/>
-      <c r="J12" s="525"/>
+      <c r="B12" s="520"/>
+      <c r="C12" s="520"/>
+      <c r="D12" s="520"/>
+      <c r="E12" s="520"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="520"/>
+      <c r="H12" s="520"/>
+      <c r="I12" s="520"/>
+      <c r="J12" s="520"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="527" t="str">
+      <c r="A13" s="522" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="B13" s="528"/>
-      <c r="C13" s="528"/>
-      <c r="D13" s="528"/>
-      <c r="E13" s="528"/>
-      <c r="F13" s="528"/>
-      <c r="G13" s="528"/>
-      <c r="H13" s="528"/>
-      <c r="I13" s="528"/>
-      <c r="J13" s="528"/>
+      <c r="B13" s="523"/>
+      <c r="C13" s="523"/>
+      <c r="D13" s="523"/>
+      <c r="E13" s="523"/>
+      <c r="F13" s="523"/>
+      <c r="G13" s="523"/>
+      <c r="H13" s="523"/>
+      <c r="I13" s="523"/>
+      <c r="J13" s="523"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10762,7 +10921,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="487" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="474" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -10783,7 +10942,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="487" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="474" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -10804,7 +10963,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="487" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="474" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -10854,493 +11013,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="529" t="s">
+      <c r="A22" s="524" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="529" t="s">
+      <c r="B22" s="524" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="529"/>
-      <c r="D22" s="529"/>
-      <c r="E22" s="529" t="s">
+      <c r="C22" s="524"/>
+      <c r="D22" s="524"/>
+      <c r="E22" s="524" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="529"/>
-      <c r="G22" s="544" t="s">
+      <c r="F22" s="524"/>
+      <c r="G22" s="539" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="529" t="s">
+      <c r="H22" s="524" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="529"/>
-      <c r="J22" s="529"/>
+      <c r="I22" s="524"/>
+      <c r="J22" s="524"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="529"/>
-      <c r="B23" s="529"/>
-      <c r="C23" s="529"/>
-      <c r="D23" s="529"/>
-      <c r="E23" s="529"/>
-      <c r="F23" s="529"/>
-      <c r="G23" s="544"/>
-      <c r="H23" s="529"/>
-      <c r="I23" s="529"/>
-      <c r="J23" s="529"/>
+      <c r="A23" s="524"/>
+      <c r="B23" s="524"/>
+      <c r="C23" s="524"/>
+      <c r="D23" s="524"/>
+      <c r="E23" s="524"/>
+      <c r="F23" s="524"/>
+      <c r="G23" s="539"/>
+      <c r="H23" s="524"/>
+      <c r="I23" s="524"/>
+      <c r="J23" s="524"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="530">
+      <c r="A24" s="525">
         <v>1</v>
       </c>
-      <c r="B24" s="519" t="s">
+      <c r="B24" s="514" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="520"/>
-      <c r="D24" s="521"/>
-      <c r="E24" s="532" t="str">
+      <c r="C24" s="515"/>
+      <c r="D24" s="516"/>
+      <c r="E24" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F24" s="533"/>
-      <c r="G24" s="536">
+      <c r="F24" s="528"/>
+      <c r="G24" s="531">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="538"/>
-      <c r="I24" s="539"/>
-      <c r="J24" s="540"/>
+      <c r="H24" s="533"/>
+      <c r="I24" s="534"/>
+      <c r="J24" s="535"/>
     </row>
     <row r="25" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="531"/>
-      <c r="B25" s="522" t="str">
+      <c r="A25" s="526"/>
+      <c r="B25" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C25" s="523"/>
-      <c r="D25" s="524"/>
-      <c r="E25" s="534"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="537"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="542"/>
-      <c r="J25" s="543"/>
+      <c r="C25" s="518"/>
+      <c r="D25" s="519"/>
+      <c r="E25" s="529"/>
+      <c r="F25" s="530"/>
+      <c r="G25" s="532"/>
+      <c r="H25" s="536"/>
+      <c r="I25" s="537"/>
+      <c r="J25" s="538"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="530">
+      <c r="A26" s="525">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="540" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
-      <c r="E26" s="532" t="str">
+      <c r="C26" s="541"/>
+      <c r="D26" s="542"/>
+      <c r="E26" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F26" s="533"/>
-      <c r="G26" s="536">
+      <c r="F26" s="528"/>
+      <c r="G26" s="531">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="538"/>
-      <c r="I26" s="539"/>
-      <c r="J26" s="540"/>
+      <c r="H26" s="533"/>
+      <c r="I26" s="534"/>
+      <c r="J26" s="535"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="531"/>
-      <c r="B27" s="522" t="str">
+      <c r="A27" s="526"/>
+      <c r="B27" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C27" s="523"/>
-      <c r="D27" s="524"/>
-      <c r="E27" s="534"/>
-      <c r="F27" s="535"/>
-      <c r="G27" s="537"/>
-      <c r="H27" s="541"/>
-      <c r="I27" s="542"/>
-      <c r="J27" s="543"/>
+      <c r="C27" s="518"/>
+      <c r="D27" s="519"/>
+      <c r="E27" s="529"/>
+      <c r="F27" s="530"/>
+      <c r="G27" s="532"/>
+      <c r="H27" s="536"/>
+      <c r="I27" s="537"/>
+      <c r="J27" s="538"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="530">
+      <c r="A28" s="525">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="540" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
-      <c r="E28" s="532" t="str">
+      <c r="C28" s="541"/>
+      <c r="D28" s="542"/>
+      <c r="E28" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F28" s="533"/>
-      <c r="G28" s="536">
+      <c r="F28" s="528"/>
+      <c r="G28" s="531">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="538"/>
-      <c r="I28" s="539"/>
-      <c r="J28" s="540"/>
+      <c r="H28" s="533"/>
+      <c r="I28" s="534"/>
+      <c r="J28" s="535"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="531"/>
-      <c r="B29" s="522" t="str">
+      <c r="A29" s="526"/>
+      <c r="B29" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C29" s="523"/>
-      <c r="D29" s="524"/>
-      <c r="E29" s="534"/>
-      <c r="F29" s="535"/>
-      <c r="G29" s="537"/>
-      <c r="H29" s="541"/>
-      <c r="I29" s="542"/>
-      <c r="J29" s="543"/>
+      <c r="C29" s="518"/>
+      <c r="D29" s="519"/>
+      <c r="E29" s="529"/>
+      <c r="F29" s="530"/>
+      <c r="G29" s="532"/>
+      <c r="H29" s="536"/>
+      <c r="I29" s="537"/>
+      <c r="J29" s="538"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="530">
+      <c r="A30" s="525">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="540" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="532" t="str">
+      <c r="C30" s="541"/>
+      <c r="D30" s="542"/>
+      <c r="E30" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F30" s="533"/>
-      <c r="G30" s="536">
+      <c r="F30" s="528"/>
+      <c r="G30" s="531">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="538"/>
-      <c r="I30" s="539"/>
-      <c r="J30" s="540"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="534"/>
+      <c r="J30" s="535"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="531"/>
-      <c r="B31" s="522" t="str">
+      <c r="A31" s="526"/>
+      <c r="B31" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C31" s="523"/>
-      <c r="D31" s="524"/>
-      <c r="E31" s="534"/>
-      <c r="F31" s="535"/>
-      <c r="G31" s="537"/>
-      <c r="H31" s="541"/>
-      <c r="I31" s="542"/>
-      <c r="J31" s="543"/>
+      <c r="C31" s="518"/>
+      <c r="D31" s="519"/>
+      <c r="E31" s="529"/>
+      <c r="F31" s="530"/>
+      <c r="G31" s="532"/>
+      <c r="H31" s="536"/>
+      <c r="I31" s="537"/>
+      <c r="J31" s="538"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="530">
+      <c r="A32" s="525">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="545" t="s">
+      <c r="B32" s="540" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="546"/>
-      <c r="D32" s="547"/>
-      <c r="E32" s="532" t="str">
+      <c r="C32" s="541"/>
+      <c r="D32" s="542"/>
+      <c r="E32" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F32" s="533"/>
-      <c r="G32" s="536">
+      <c r="F32" s="528"/>
+      <c r="G32" s="531">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="538"/>
-      <c r="I32" s="539"/>
-      <c r="J32" s="540"/>
+      <c r="H32" s="533"/>
+      <c r="I32" s="534"/>
+      <c r="J32" s="535"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="531"/>
-      <c r="B33" s="522" t="str">
+      <c r="A33" s="526"/>
+      <c r="B33" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C33" s="523"/>
-      <c r="D33" s="524"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="537"/>
-      <c r="H33" s="541"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="543"/>
+      <c r="C33" s="518"/>
+      <c r="D33" s="519"/>
+      <c r="E33" s="529"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="532"/>
+      <c r="H33" s="536"/>
+      <c r="I33" s="537"/>
+      <c r="J33" s="538"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="530">
+      <c r="A34" s="525">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="545" t="s">
+      <c r="B34" s="540" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="546"/>
-      <c r="D34" s="547"/>
-      <c r="E34" s="532" t="str">
+      <c r="C34" s="541"/>
+      <c r="D34" s="542"/>
+      <c r="E34" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F34" s="533"/>
-      <c r="G34" s="536">
+      <c r="F34" s="528"/>
+      <c r="G34" s="531">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="538"/>
-      <c r="I34" s="539"/>
-      <c r="J34" s="540"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="535"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="531"/>
-      <c r="B35" s="522" t="str">
+      <c r="A35" s="526"/>
+      <c r="B35" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C35" s="523"/>
-      <c r="D35" s="524"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="537"/>
-      <c r="H35" s="541"/>
-      <c r="I35" s="542"/>
-      <c r="J35" s="543"/>
+      <c r="C35" s="518"/>
+      <c r="D35" s="519"/>
+      <c r="E35" s="529"/>
+      <c r="F35" s="530"/>
+      <c r="G35" s="532"/>
+      <c r="H35" s="536"/>
+      <c r="I35" s="537"/>
+      <c r="J35" s="538"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="530">
+      <c r="A36" s="525">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="545" t="s">
+      <c r="B36" s="540" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="546"/>
-      <c r="D36" s="547"/>
-      <c r="E36" s="532" t="str">
+      <c r="C36" s="541"/>
+      <c r="D36" s="542"/>
+      <c r="E36" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F36" s="533"/>
-      <c r="G36" s="536">
+      <c r="F36" s="528"/>
+      <c r="G36" s="531">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="538"/>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
+      <c r="H36" s="533"/>
+      <c r="I36" s="534"/>
+      <c r="J36" s="535"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="531"/>
-      <c r="B37" s="522" t="str">
+      <c r="A37" s="526"/>
+      <c r="B37" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C37" s="523"/>
-      <c r="D37" s="524"/>
-      <c r="E37" s="534"/>
-      <c r="F37" s="535"/>
-      <c r="G37" s="537"/>
-      <c r="H37" s="541"/>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
+      <c r="C37" s="518"/>
+      <c r="D37" s="519"/>
+      <c r="E37" s="529"/>
+      <c r="F37" s="530"/>
+      <c r="G37" s="532"/>
+      <c r="H37" s="536"/>
+      <c r="I37" s="537"/>
+      <c r="J37" s="538"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="530">
+      <c r="A38" s="525">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="545" t="s">
+      <c r="B38" s="540" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="546"/>
-      <c r="D38" s="547"/>
-      <c r="E38" s="532" t="str">
+      <c r="C38" s="541"/>
+      <c r="D38" s="542"/>
+      <c r="E38" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F38" s="533"/>
-      <c r="G38" s="536">
+      <c r="F38" s="528"/>
+      <c r="G38" s="531">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="538"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="540"/>
+      <c r="H38" s="533"/>
+      <c r="I38" s="534"/>
+      <c r="J38" s="535"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="531"/>
-      <c r="B39" s="522" t="str">
+      <c r="A39" s="526"/>
+      <c r="B39" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C39" s="523"/>
-      <c r="D39" s="524"/>
-      <c r="E39" s="534"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="537"/>
-      <c r="H39" s="541"/>
-      <c r="I39" s="542"/>
-      <c r="J39" s="543"/>
+      <c r="C39" s="518"/>
+      <c r="D39" s="519"/>
+      <c r="E39" s="529"/>
+      <c r="F39" s="530"/>
+      <c r="G39" s="532"/>
+      <c r="H39" s="536"/>
+      <c r="I39" s="537"/>
+      <c r="J39" s="538"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="530">
+      <c r="A40" s="525">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="545" t="s">
+      <c r="B40" s="540" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="546"/>
-      <c r="D40" s="547"/>
-      <c r="E40" s="532" t="str">
+      <c r="C40" s="541"/>
+      <c r="D40" s="542"/>
+      <c r="E40" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F40" s="533"/>
-      <c r="G40" s="536">
+      <c r="F40" s="528"/>
+      <c r="G40" s="531">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="538"/>
-      <c r="I40" s="539"/>
-      <c r="J40" s="540"/>
+      <c r="H40" s="533"/>
+      <c r="I40" s="534"/>
+      <c r="J40" s="535"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="531"/>
-      <c r="B41" s="522" t="str">
+      <c r="A41" s="526"/>
+      <c r="B41" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C41" s="523"/>
-      <c r="D41" s="524"/>
-      <c r="E41" s="534"/>
-      <c r="F41" s="535"/>
-      <c r="G41" s="537"/>
-      <c r="H41" s="541"/>
-      <c r="I41" s="542"/>
-      <c r="J41" s="543"/>
+      <c r="C41" s="518"/>
+      <c r="D41" s="519"/>
+      <c r="E41" s="529"/>
+      <c r="F41" s="530"/>
+      <c r="G41" s="532"/>
+      <c r="H41" s="536"/>
+      <c r="I41" s="537"/>
+      <c r="J41" s="538"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="530">
+      <c r="A42" s="525">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="545" t="s">
+      <c r="B42" s="540" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="546"/>
-      <c r="D42" s="547"/>
-      <c r="E42" s="532" t="str">
+      <c r="C42" s="541"/>
+      <c r="D42" s="542"/>
+      <c r="E42" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F42" s="533"/>
-      <c r="G42" s="536">
+      <c r="F42" s="528"/>
+      <c r="G42" s="531">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="H42" s="538"/>
-      <c r="I42" s="539"/>
-      <c r="J42" s="540"/>
+      <c r="H42" s="533"/>
+      <c r="I42" s="534"/>
+      <c r="J42" s="535"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="531"/>
-      <c r="B43" s="522" t="str">
+      <c r="A43" s="526"/>
+      <c r="B43" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C43" s="523"/>
-      <c r="D43" s="524"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="535"/>
-      <c r="G43" s="537"/>
-      <c r="H43" s="541"/>
-      <c r="I43" s="542"/>
-      <c r="J43" s="543"/>
+      <c r="C43" s="518"/>
+      <c r="D43" s="519"/>
+      <c r="E43" s="529"/>
+      <c r="F43" s="530"/>
+      <c r="G43" s="532"/>
+      <c r="H43" s="536"/>
+      <c r="I43" s="537"/>
+      <c r="J43" s="538"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="530">
+      <c r="A44" s="525">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="545" t="s">
+      <c r="B44" s="540" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="546"/>
-      <c r="D44" s="547"/>
-      <c r="E44" s="532" t="str">
+      <c r="C44" s="541"/>
+      <c r="D44" s="542"/>
+      <c r="E44" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F44" s="533"/>
-      <c r="G44" s="536">
+      <c r="F44" s="528"/>
+      <c r="G44" s="531">
         <f>Данные!B26</f>
         <v>30</v>
       </c>
-      <c r="H44" s="538"/>
-      <c r="I44" s="539"/>
-      <c r="J44" s="540"/>
+      <c r="H44" s="533"/>
+      <c r="I44" s="534"/>
+      <c r="J44" s="535"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="531"/>
-      <c r="B45" s="522" t="str">
+      <c r="A45" s="526"/>
+      <c r="B45" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C45" s="523"/>
-      <c r="D45" s="524"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="535"/>
-      <c r="G45" s="537"/>
-      <c r="H45" s="541"/>
-      <c r="I45" s="542"/>
-      <c r="J45" s="543"/>
+      <c r="C45" s="518"/>
+      <c r="D45" s="519"/>
+      <c r="E45" s="529"/>
+      <c r="F45" s="530"/>
+      <c r="G45" s="532"/>
+      <c r="H45" s="536"/>
+      <c r="I45" s="537"/>
+      <c r="J45" s="538"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="530">
+      <c r="A46" s="525">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="545" t="s">
+      <c r="B46" s="540" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="546"/>
-      <c r="D46" s="547"/>
-      <c r="E46" s="532" t="str">
+      <c r="C46" s="541"/>
+      <c r="D46" s="542"/>
+      <c r="E46" s="527" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F46" s="533"/>
-      <c r="G46" s="536">
+      <c r="F46" s="528"/>
+      <c r="G46" s="531">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="538"/>
-      <c r="I46" s="539"/>
-      <c r="J46" s="540"/>
+      <c r="H46" s="533"/>
+      <c r="I46" s="534"/>
+      <c r="J46" s="535"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="531"/>
-      <c r="B47" s="522" t="str">
+      <c r="A47" s="526"/>
+      <c r="B47" s="517" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C47" s="523"/>
-      <c r="D47" s="524"/>
-      <c r="E47" s="534"/>
-      <c r="F47" s="535"/>
-      <c r="G47" s="537"/>
-      <c r="H47" s="541"/>
-      <c r="I47" s="542"/>
-      <c r="J47" s="543"/>
+      <c r="C47" s="518"/>
+      <c r="D47" s="519"/>
+      <c r="E47" s="529"/>
+      <c r="F47" s="530"/>
+      <c r="G47" s="532"/>
+      <c r="H47" s="536"/>
+      <c r="I47" s="537"/>
+      <c r="J47" s="538"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11606,47 +11765,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11657,9 +11816,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11678,22 +11837,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="546"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11704,22 +11863,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="546"/>
+      <c r="J6" s="547"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11730,27 +11889,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="554"/>
-      <c r="D7" s="504">
+      <c r="C7" s="549"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="553" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="548" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="557"/>
-      <c r="K7" s="492">
+      <c r="J7" s="552"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11973,7 +12132,7 @@
       <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="373"/>
+      <c r="C15" s="372"/>
       <c r="D15" s="97">
         <v>0.1</v>
       </c>
@@ -12218,12 +12377,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="548" t="s">
+      <c r="B23" s="543" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="549"/>
-      <c r="D23" s="549"/>
-      <c r="E23" s="550"/>
+      <c r="C23" s="544"/>
+      <c r="D23" s="544"/>
+      <c r="E23" s="545"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12245,12 +12404,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="586" t="s">
+      <c r="B24" s="581" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="587"/>
-      <c r="D24" s="587"/>
-      <c r="E24" s="588"/>
+      <c r="C24" s="582"/>
+      <c r="D24" s="582"/>
+      <c r="E24" s="583"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12293,25 +12452,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="561" t="s">
+      <c r="K27" s="556" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="561"/>
-      <c r="M27" s="561"/>
-      <c r="N27" s="470"/>
-      <c r="O27" s="470"/>
-      <c r="P27" s="486"/>
-      <c r="Q27" s="486"/>
+      <c r="L27" s="556"/>
+      <c r="M27" s="556"/>
+      <c r="N27" s="457"/>
+      <c r="O27" s="457"/>
+      <c r="P27" s="473"/>
+      <c r="Q27" s="473"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="558" t="s">
+      <c r="N28" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="558"/>
-      <c r="P28" s="559" t="s">
+      <c r="O28" s="553"/>
+      <c r="P28" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="560"/>
+      <c r="Q28" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12403,50 +12562,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597">
+      <c r="B2" s="592">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="612"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12457,9 +12616,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12478,22 +12637,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12504,21 +12663,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="s">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12529,27 +12688,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12710,7 +12869,7 @@
       <c r="B13" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="373"/>
+      <c r="C13" s="372"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -12738,12 +12897,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="595" t="s">
+      <c r="B14" s="590" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="596"/>
-      <c r="D14" s="596"/>
-      <c r="E14" s="596"/>
+      <c r="C14" s="591"/>
+      <c r="D14" s="591"/>
+      <c r="E14" s="591"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12765,13 +12924,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="548" t="s">
+      <c r="B15" s="543" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="549"/>
-      <c r="D15" s="549"/>
-      <c r="E15" s="549"/>
-      <c r="F15" s="594"/>
+      <c r="C15" s="544"/>
+      <c r="D15" s="544"/>
+      <c r="E15" s="544"/>
+      <c r="F15" s="589"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12790,12 +12949,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="581" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="582"/>
+      <c r="D16" s="582"/>
+      <c r="E16" s="583"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12842,25 +13001,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="561" t="s">
+      <c r="L19" s="556" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="561"/>
-      <c r="N19" s="561"/>
-      <c r="O19" s="470"/>
-      <c r="P19" s="470"/>
-      <c r="Q19" s="486"/>
-      <c r="R19" s="486"/>
+      <c r="M19" s="556"/>
+      <c r="N19" s="556"/>
+      <c r="O19" s="457"/>
+      <c r="P19" s="457"/>
+      <c r="Q19" s="473"/>
+      <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -12964,47 +13123,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="574"/>
-      <c r="Q2" s="574"/>
+      <c r="P2" s="569"/>
+      <c r="Q2" s="569"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13015,9 +13174,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13036,22 +13195,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="546"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13062,22 +13221,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="546"/>
+      <c r="J6" s="547"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13088,27 +13247,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="554"/>
-      <c r="D7" s="504">
+      <c r="C7" s="549"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="553" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="548" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="557"/>
-      <c r="K7" s="492">
+      <c r="J7" s="552"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13283,7 +13442,7 @@
       <c r="B13" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="373"/>
+      <c r="C13" s="372"/>
       <c r="D13" s="97">
         <v>0.1</v>
       </c>
@@ -13570,25 +13729,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="626" t="s">
+      <c r="L23" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="626"/>
-      <c r="N23" s="626"/>
-      <c r="O23" s="470"/>
-      <c r="P23" s="470"/>
-      <c r="Q23" s="486"/>
-      <c r="R23" s="486"/>
+      <c r="M23" s="621"/>
+      <c r="N23" s="621"/>
+      <c r="O23" s="457"/>
+      <c r="P23" s="457"/>
+      <c r="Q23" s="473"/>
+      <c r="R23" s="473"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="558" t="s">
+      <c r="O24" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="559" t="s">
+      <c r="P24" s="553"/>
+      <c r="Q24" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="560"/>
+      <c r="R24" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13680,47 +13839,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="562"/>
-      <c r="C2" s="563"/>
-      <c r="D2" s="564"/>
-      <c r="E2" s="571" t="s">
+      <c r="B2" s="557"/>
+      <c r="C2" s="558"/>
+      <c r="D2" s="559"/>
+      <c r="E2" s="566" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="572"/>
-      <c r="G2" s="572"/>
-      <c r="H2" s="573"/>
-      <c r="I2" s="578" t="s">
+      <c r="F2" s="567"/>
+      <c r="G2" s="567"/>
+      <c r="H2" s="568"/>
+      <c r="I2" s="573" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="579"/>
-      <c r="K2" s="582">
+      <c r="J2" s="574"/>
+      <c r="K2" s="577">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="583"/>
+      <c r="L2" s="578"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="622"/>
+      <c r="Q2" s="622"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="565"/>
-      <c r="C3" s="566"/>
-      <c r="D3" s="567"/>
-      <c r="E3" s="575" t="s">
+      <c r="B3" s="560"/>
+      <c r="C3" s="561"/>
+      <c r="D3" s="562"/>
+      <c r="E3" s="570" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="576"/>
-      <c r="G3" s="576"/>
-      <c r="H3" s="577"/>
-      <c r="I3" s="580"/>
-      <c r="J3" s="581"/>
-      <c r="K3" s="584"/>
-      <c r="L3" s="585"/>
+      <c r="F3" s="571"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="572"/>
+      <c r="I3" s="575"/>
+      <c r="J3" s="576"/>
+      <c r="K3" s="579"/>
+      <c r="L3" s="580"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13731,9 +13890,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="568"/>
-      <c r="C4" s="569"/>
-      <c r="D4" s="570"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="564"/>
+      <c r="D4" s="565"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13752,22 +13911,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="590"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="585"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="546"/>
+      <c r="J5" s="547"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13778,22 +13937,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="546"/>
+      <c r="J6" s="547"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13804,27 +13963,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="554"/>
-      <c r="D7" s="504">
+      <c r="C7" s="549"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="553" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="548" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="557"/>
-      <c r="K7" s="492">
+      <c r="J7" s="552"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13892,7 +14051,7 @@
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="373"/>
       <c r="D10" s="44">
         <v>0.05</v>
       </c>
@@ -14096,25 +14255,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="626" t="s">
+      <c r="L18" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="626"/>
-      <c r="N18" s="626"/>
-      <c r="O18" s="470"/>
-      <c r="P18" s="470"/>
-      <c r="Q18" s="486"/>
-      <c r="R18" s="486"/>
+      <c r="M18" s="621"/>
+      <c r="N18" s="621"/>
+      <c r="O18" s="457"/>
+      <c r="P18" s="457"/>
+      <c r="Q18" s="473"/>
+      <c r="R18" s="473"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="558" t="s">
+      <c r="O19" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="558"/>
-      <c r="Q19" s="559" t="s">
+      <c r="P19" s="553"/>
+      <c r="Q19" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="560"/>
+      <c r="R19" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14210,60 +14369,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="617"/>
-      <c r="M2" s="628"/>
-      <c r="N2" s="629"/>
-      <c r="O2" s="629"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
-      <c r="R2" s="630"/>
+      <c r="L2" s="612"/>
+      <c r="M2" s="623"/>
+      <c r="N2" s="624"/>
+      <c r="O2" s="624"/>
+      <c r="P2" s="624"/>
+      <c r="Q2" s="624"/>
+      <c r="R2" s="625"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
-      <c r="M3" s="631"/>
-      <c r="N3" s="632"/>
-      <c r="O3" s="632"/>
-      <c r="P3" s="632"/>
-      <c r="Q3" s="632"/>
-      <c r="R3" s="633"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
+      <c r="M3" s="626"/>
+      <c r="N3" s="627"/>
+      <c r="O3" s="627"/>
+      <c r="P3" s="627"/>
+      <c r="Q3" s="627"/>
+      <c r="R3" s="628"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14272,95 +14431,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="631"/>
-      <c r="N4" s="632"/>
-      <c r="O4" s="632"/>
-      <c r="P4" s="632"/>
-      <c r="Q4" s="632"/>
-      <c r="R4" s="633"/>
+      <c r="M4" s="626"/>
+      <c r="N4" s="627"/>
+      <c r="O4" s="627"/>
+      <c r="P4" s="627"/>
+      <c r="Q4" s="627"/>
+      <c r="R4" s="628"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
-      <c r="M5" s="631"/>
-      <c r="N5" s="632"/>
-      <c r="O5" s="632"/>
-      <c r="P5" s="632"/>
-      <c r="Q5" s="632"/>
-      <c r="R5" s="633"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
+      <c r="M5" s="626"/>
+      <c r="N5" s="627"/>
+      <c r="O5" s="627"/>
+      <c r="P5" s="627"/>
+      <c r="Q5" s="627"/>
+      <c r="R5" s="628"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
-      <c r="M6" s="631"/>
-      <c r="N6" s="632"/>
-      <c r="O6" s="632"/>
-      <c r="P6" s="632"/>
-      <c r="Q6" s="632"/>
-      <c r="R6" s="633"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
+      <c r="M6" s="626"/>
+      <c r="N6" s="627"/>
+      <c r="O6" s="627"/>
+      <c r="P6" s="627"/>
+      <c r="Q6" s="627"/>
+      <c r="R6" s="628"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
-      <c r="M7" s="631"/>
-      <c r="N7" s="632"/>
-      <c r="O7" s="632"/>
-      <c r="P7" s="632"/>
-      <c r="Q7" s="632"/>
-      <c r="R7" s="633"/>
+      <c r="L7" s="488"/>
+      <c r="M7" s="626"/>
+      <c r="N7" s="627"/>
+      <c r="O7" s="627"/>
+      <c r="P7" s="627"/>
+      <c r="Q7" s="627"/>
+      <c r="R7" s="628"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14510,36 +14669,36 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="481" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="471"/>
-      <c r="B13" s="472" t="s">
+    <row r="13" spans="1:19" s="468" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="458"/>
+      <c r="B13" s="459" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="473"/>
-      <c r="D13" s="474">
+      <c r="C13" s="460"/>
+      <c r="D13" s="461">
         <v>0.03</v>
       </c>
-      <c r="E13" s="474">
+      <c r="E13" s="461">
         <v>0</v>
       </c>
-      <c r="F13" s="475" t="s">
+      <c r="F13" s="462" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="476"/>
-      <c r="I13" s="477"/>
-      <c r="J13" s="477"/>
-      <c r="K13" s="477"/>
-      <c r="L13" s="477"/>
-      <c r="M13" s="478"/>
-      <c r="N13" s="478"/>
-      <c r="O13" s="478"/>
-      <c r="P13" s="478"/>
-      <c r="Q13" s="478"/>
-      <c r="R13" s="479"/>
-      <c r="S13" s="480"/>
+      <c r="H13" s="463"/>
+      <c r="I13" s="464"/>
+      <c r="J13" s="464"/>
+      <c r="K13" s="464"/>
+      <c r="L13" s="464"/>
+      <c r="M13" s="465"/>
+      <c r="N13" s="465"/>
+      <c r="O13" s="465"/>
+      <c r="P13" s="465"/>
+      <c r="Q13" s="465"/>
+      <c r="R13" s="466"/>
+      <c r="S13" s="467"/>
     </row>
     <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14729,12 +14888,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="586" t="s">
+      <c r="B20" s="581" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="587"/>
-      <c r="D20" s="587"/>
-      <c r="E20" s="588"/>
+      <c r="C20" s="582"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="583"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14779,25 +14938,25 @@
       <c r="B22" s="121"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L23" s="626" t="s">
+      <c r="L23" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M23" s="626"/>
-      <c r="N23" s="626"/>
-      <c r="O23" s="470"/>
-      <c r="P23" s="470"/>
-      <c r="Q23" s="486"/>
-      <c r="R23" s="486"/>
+      <c r="M23" s="621"/>
+      <c r="N23" s="621"/>
+      <c r="O23" s="457"/>
+      <c r="P23" s="457"/>
+      <c r="Q23" s="473"/>
+      <c r="R23" s="473"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="558" t="s">
+      <c r="O24" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="558"/>
-      <c r="Q24" s="559" t="s">
+      <c r="P24" s="553"/>
+      <c r="Q24" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="560"/>
+      <c r="R24" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -14887,47 +15046,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="597"/>
-      <c r="C2" s="598"/>
-      <c r="D2" s="599"/>
-      <c r="E2" s="606" t="s">
+      <c r="B2" s="592"/>
+      <c r="C2" s="593"/>
+      <c r="D2" s="594"/>
+      <c r="E2" s="601" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="607"/>
-      <c r="G2" s="607"/>
-      <c r="H2" s="608"/>
-      <c r="I2" s="612" t="s">
+      <c r="F2" s="602"/>
+      <c r="G2" s="602"/>
+      <c r="H2" s="603"/>
+      <c r="I2" s="607" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="613"/>
-      <c r="K2" s="616">
+      <c r="J2" s="608"/>
+      <c r="K2" s="611">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="617"/>
+      <c r="L2" s="612"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="600"/>
-      <c r="C3" s="601"/>
-      <c r="D3" s="602"/>
-      <c r="E3" s="609" t="s">
+      <c r="B3" s="595"/>
+      <c r="C3" s="596"/>
+      <c r="D3" s="597"/>
+      <c r="E3" s="604" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="610"/>
-      <c r="G3" s="610"/>
-      <c r="H3" s="611"/>
-      <c r="I3" s="614"/>
-      <c r="J3" s="615"/>
-      <c r="K3" s="618"/>
-      <c r="L3" s="619"/>
+      <c r="F3" s="605"/>
+      <c r="G3" s="605"/>
+      <c r="H3" s="606"/>
+      <c r="I3" s="609"/>
+      <c r="J3" s="610"/>
+      <c r="K3" s="613"/>
+      <c r="L3" s="614"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14938,9 +15097,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="603"/>
-      <c r="C4" s="604"/>
-      <c r="D4" s="605"/>
+      <c r="B4" s="598"/>
+      <c r="C4" s="599"/>
+      <c r="D4" s="600"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14959,22 +15118,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="589" t="s">
+      <c r="B5" s="584" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="620"/>
-      <c r="D5" s="501" t="str">
+      <c r="C5" s="615"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="503"/>
-      <c r="I5" s="621"/>
-      <c r="J5" s="622"/>
-      <c r="K5" s="623"/>
-      <c r="L5" s="503"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="616"/>
+      <c r="J5" s="617"/>
+      <c r="K5" s="618"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14985,22 +15144,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="589" t="s">
+      <c r="B6" s="584" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="620"/>
-      <c r="D6" s="495" t="str">
+      <c r="C6" s="615"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="621"/>
-      <c r="J6" s="622"/>
-      <c r="K6" s="623"/>
-      <c r="L6" s="503"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="616"/>
+      <c r="J6" s="617"/>
+      <c r="K6" s="618"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15011,27 +15170,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="553" t="s">
+      <c r="B7" s="548" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="624"/>
-      <c r="D7" s="504">
+      <c r="C7" s="619"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="555"/>
-      <c r="F7" s="555"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="556"/>
-      <c r="I7" s="625" t="s">
+      <c r="E7" s="550"/>
+      <c r="F7" s="550"/>
+      <c r="G7" s="550"/>
+      <c r="H7" s="551"/>
+      <c r="I7" s="620" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="624"/>
-      <c r="K7" s="492">
+      <c r="J7" s="619"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="493"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15156,36 +15315,36 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="481" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="471"/>
-      <c r="B12" s="482" t="s">
+    <row r="12" spans="1:19" s="468" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="458"/>
+      <c r="B12" s="469" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="483"/>
-      <c r="D12" s="477">
+      <c r="C12" s="470"/>
+      <c r="D12" s="464">
         <v>0</v>
       </c>
-      <c r="E12" s="477">
+      <c r="E12" s="464">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="475" t="s">
+      <c r="F12" s="462" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="484"/>
-      <c r="I12" s="477"/>
-      <c r="J12" s="477"/>
-      <c r="K12" s="477"/>
-      <c r="L12" s="477"/>
-      <c r="M12" s="477"/>
-      <c r="N12" s="477"/>
-      <c r="O12" s="477"/>
-      <c r="P12" s="477"/>
-      <c r="Q12" s="477"/>
-      <c r="R12" s="485"/>
-      <c r="S12" s="480"/>
+      <c r="H12" s="471"/>
+      <c r="I12" s="464"/>
+      <c r="J12" s="464"/>
+      <c r="K12" s="464"/>
+      <c r="L12" s="464"/>
+      <c r="M12" s="464"/>
+      <c r="N12" s="464"/>
+      <c r="O12" s="464"/>
+      <c r="P12" s="464"/>
+      <c r="Q12" s="464"/>
+      <c r="R12" s="472"/>
+      <c r="S12" s="467"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15282,12 +15441,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="586" t="s">
+      <c r="B16" s="581" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="587"/>
-      <c r="D16" s="587"/>
-      <c r="E16" s="588"/>
+      <c r="C16" s="582"/>
+      <c r="D16" s="582"/>
+      <c r="E16" s="583"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15332,25 +15491,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="626" t="s">
+      <c r="L19" s="621" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="626"/>
-      <c r="N19" s="626"/>
-      <c r="O19" s="470"/>
-      <c r="P19" s="470"/>
-      <c r="Q19" s="486"/>
-      <c r="R19" s="486"/>
+      <c r="M19" s="621"/>
+      <c r="N19" s="621"/>
+      <c r="O19" s="457"/>
+      <c r="P19" s="457"/>
+      <c r="Q19" s="473"/>
+      <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="558" t="s">
+      <c r="O20" s="553" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="558"/>
-      <c r="Q20" s="559" t="s">
+      <c r="P20" s="553"/>
+      <c r="Q20" s="554" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="560"/>
+      <c r="R20" s="555"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XXI-КПМ-26-4-500-10 (Айс Куб) от 09.06.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A24AD-AF22-4FA4-8B43-C3FC1A755FD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382EB276-9FB3-4EA3-9C13-1F410EBEFC32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19710" yWindow="5565" windowWidth="6945" windowHeight="1020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="158">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -3627,6 +3627,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3671,11 +3677,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3694,10 +3699,65 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -3708,15 +3768,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3732,68 +3783,107 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3801,6 +3891,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3816,110 +3920,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3929,93 +4016,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4046,6 +4046,9 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4055,12 +4058,12 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4071,9 +4074,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6847,25 +6847,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="491" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
       <c r="G1" s="360" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="492" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494"/>
       <c r="G2" s="359" t="s">
         <v>79</v>
       </c>
@@ -6876,45 +6876,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="496" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="498" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="500"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="495"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="501"/>
+      <c r="B8" s="502"/>
+      <c r="C8" s="502"/>
+      <c r="D8" s="502"/>
+      <c r="E8" s="503"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="491"/>
       <c r="C10" s="361"/>
       <c r="D10" s="367" t="s">
         <v>92</v>
@@ -6925,33 +6925,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="489"/>
+      <c r="B11" s="490"/>
       <c r="D11" s="366">
         <v>43991</v>
       </c>
-      <c r="F11" s="502" t="s">
+      <c r="F11" s="486" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="502"/>
-      <c r="H11" s="502"/>
-      <c r="I11" s="502"/>
-      <c r="J11" s="503" t="s">
+      <c r="G11" s="486"/>
+      <c r="H11" s="486"/>
+      <c r="I11" s="486"/>
+      <c r="J11" s="487" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="503"/>
+      <c r="K11" s="487"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="502" t="s">
+      <c r="F12" s="486" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="502"/>
-      <c r="H12" s="502"/>
-      <c r="I12" s="502"/>
-      <c r="J12" s="503" t="s">
+      <c r="G12" s="486"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="486"/>
+      <c r="J12" s="487" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="503"/>
+      <c r="K12" s="487"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="371" t="s">
@@ -6969,16 +6969,16 @@
       <c r="E13" s="456" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="502" t="s">
+      <c r="F13" s="486" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="502"/>
-      <c r="H13" s="502"/>
-      <c r="I13" s="502"/>
-      <c r="J13" s="503" t="s">
+      <c r="G13" s="486"/>
+      <c r="H13" s="486"/>
+      <c r="I13" s="486"/>
+      <c r="J13" s="487" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="503"/>
+      <c r="K13" s="487"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="362" t="s">
@@ -7214,11 +7214,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="486" t="s">
+      <c r="A28" s="488" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="486"/>
-      <c r="C28" s="486"/>
+      <c r="B28" s="488"/>
+      <c r="C28" s="488"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="360" t="s">
@@ -7227,12 +7227,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7242,6 +7236,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7295,24 +7295,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -7323,19 +7323,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7346,9 +7346,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7367,22 +7367,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7393,22 +7393,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7419,27 +7419,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7817,17 +7817,22 @@
       <c r="R21" s="473"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
+      <c r="P22" s="543"/>
+      <c r="Q22" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7844,11 +7849,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7914,47 +7914,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="634"/>
-      <c r="Q2" s="634"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7965,9 +7965,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7986,22 +7986,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8012,22 +8012,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8038,27 +8038,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8371,12 +8371,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="631" t="s">
+      <c r="B18" s="632" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="632"/>
-      <c r="D18" s="632"/>
-      <c r="E18" s="633"/>
+      <c r="C18" s="633"/>
+      <c r="D18" s="633"/>
+      <c r="E18" s="634"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8430,17 +8430,26 @@
       <c r="R21" s="473"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="553" t="s">
+      <c r="O22" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="553"/>
-      <c r="Q22" s="554" t="s">
+      <c r="P22" s="543"/>
+      <c r="Q22" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="555"/>
+      <c r="R22" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8454,15 +8463,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8537,24 +8537,24 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -8565,19 +8565,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8588,9 +8588,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8609,22 +8609,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8635,22 +8635,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8661,27 +8661,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8995,17 +8995,22 @@
       <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="543"/>
+      <c r="Q20" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9022,11 +9027,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9083,47 +9083,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="636">
+      <c r="J2" s="611"/>
+      <c r="K2" s="637">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="637"/>
+      <c r="L2" s="638"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="640"/>
-      <c r="Q2" s="640"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="638"/>
-      <c r="L3" s="639"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="639"/>
+      <c r="L3" s="640"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9134,9 +9134,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9155,22 +9155,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9181,22 +9181,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9207,27 +9207,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9500,17 +9500,22 @@
       <c r="R18" s="473"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="553" t="s">
+      <c r="O19" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="553"/>
-      <c r="Q19" s="554" t="s">
+      <c r="P19" s="543"/>
+      <c r="Q19" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="555"/>
+      <c r="R19" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9527,11 +9532,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9558,10 +9558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9616,17 +9616,17 @@
       <c r="L2" s="377"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="506" t="s">
+      <c r="A3" s="509" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="506"/>
-      <c r="F3" s="506"/>
-      <c r="G3" s="506"/>
-      <c r="H3" s="506"/>
-      <c r="I3" s="506"/>
+      <c r="B3" s="509"/>
+      <c r="C3" s="509"/>
+      <c r="D3" s="509"/>
+      <c r="E3" s="509"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="509"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
       <c r="K3" s="378"/>
       <c r="L3" s="378"/>
       <c r="M3" s="379"/>
@@ -10131,7 +10131,7 @@
         <v>461100</v>
       </c>
       <c r="G21" s="422">
-        <f t="shared" ref="G21:G29" si="2">F21/A$21</f>
+        <f t="shared" ref="G21:G30" si="2">F21/A$21</f>
         <v>2.7446428571428573E-2</v>
       </c>
       <c r="H21" s="423">
@@ -10426,21 +10426,42 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="431"/>
-      <c r="B30" s="432"/>
-      <c r="C30" s="432"/>
-      <c r="D30" s="432"/>
-      <c r="E30" s="433"/>
-      <c r="F30" s="433"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="429"/>
-      <c r="I30" s="430"/>
-      <c r="J30" s="484"/>
+      <c r="B30" s="478" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="432">
+        <v>44351</v>
+      </c>
+      <c r="D30" s="432">
+        <v>44378</v>
+      </c>
+      <c r="E30" s="433">
+        <v>468768</v>
+      </c>
+      <c r="F30" s="433">
+        <v>488851</v>
+      </c>
+      <c r="G30" s="422">
+        <f t="shared" si="2"/>
+        <v>2.909827380952381E-2</v>
+      </c>
+      <c r="H30" s="429">
+        <f t="shared" ref="H30" si="14">H29-F30</f>
+        <v>11242621</v>
+      </c>
+      <c r="I30" s="430">
+        <f t="shared" ref="I30" si="15">I29-G30</f>
+        <v>0.669203630952381</v>
+      </c>
+      <c r="J30" s="484">
+        <v>414</v>
+      </c>
       <c r="K30" s="425"/>
       <c r="L30" s="379"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="435"/>
-      <c r="B31" s="436"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="431"/>
+      <c r="B31" s="479"/>
       <c r="C31" s="432"/>
       <c r="D31" s="432"/>
       <c r="E31" s="433"/>
@@ -10448,117 +10469,112 @@
       <c r="G31" s="422"/>
       <c r="H31" s="429"/>
       <c r="I31" s="430"/>
-      <c r="J31" s="485"/>
-      <c r="K31" s="379"/>
+      <c r="J31" s="484"/>
+      <c r="K31" s="425"/>
       <c r="L31" s="379"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="437" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="431"/>
+      <c r="B32" s="479"/>
+      <c r="C32" s="432"/>
+      <c r="D32" s="432"/>
+      <c r="E32" s="433"/>
+      <c r="F32" s="433"/>
+      <c r="G32" s="422"/>
+      <c r="H32" s="429"/>
+      <c r="I32" s="430"/>
+      <c r="J32" s="484"/>
+      <c r="K32" s="425"/>
+      <c r="L32" s="379"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="431"/>
+      <c r="B33" s="479"/>
+      <c r="C33" s="432"/>
+      <c r="D33" s="432"/>
+      <c r="E33" s="433"/>
+      <c r="F33" s="433"/>
+      <c r="G33" s="422"/>
+      <c r="H33" s="429"/>
+      <c r="I33" s="430"/>
+      <c r="J33" s="484"/>
+      <c r="K33" s="425"/>
+      <c r="L33" s="379"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="431"/>
+      <c r="B34" s="479"/>
+      <c r="C34" s="432"/>
+      <c r="D34" s="432"/>
+      <c r="E34" s="433"/>
+      <c r="F34" s="433"/>
+      <c r="G34" s="422"/>
+      <c r="H34" s="429"/>
+      <c r="I34" s="430"/>
+      <c r="J34" s="484"/>
+      <c r="K34" s="425"/>
+      <c r="L34" s="379"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="431"/>
+      <c r="B35" s="432"/>
+      <c r="C35" s="432"/>
+      <c r="D35" s="432"/>
+      <c r="E35" s="433"/>
+      <c r="F35" s="433"/>
+      <c r="G35" s="422"/>
+      <c r="H35" s="429"/>
+      <c r="I35" s="430"/>
+      <c r="J35" s="484"/>
+      <c r="K35" s="425"/>
+      <c r="L35" s="379"/>
+    </row>
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="435"/>
+      <c r="B36" s="436"/>
+      <c r="C36" s="432"/>
+      <c r="D36" s="432"/>
+      <c r="E36" s="433"/>
+      <c r="F36" s="433"/>
+      <c r="G36" s="422"/>
+      <c r="H36" s="429"/>
+      <c r="I36" s="430"/>
+      <c r="J36" s="485"/>
+      <c r="K36" s="379"/>
+      <c r="L36" s="379"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="437" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="438"/>
-      <c r="C32" s="438"/>
-      <c r="D32" s="439"/>
-      <c r="E32" s="476">
-        <f>SUM(E21:E31)</f>
-        <v>4859136</v>
-      </c>
-      <c r="F32" s="477">
-        <f>SUM(F21:F31)</f>
-        <v>5068528</v>
-      </c>
-      <c r="G32" s="440">
-        <f>SUM(G21:G31)</f>
-        <v>0.30169809523809521</v>
-      </c>
-      <c r="H32" s="441">
-        <f>A21-F32</f>
-        <v>11731472</v>
-      </c>
-      <c r="I32" s="442">
-        <f>1-G32</f>
-        <v>0.69830190476190479</v>
-      </c>
-      <c r="J32" s="442"/>
-      <c r="K32" s="443"/>
-      <c r="L32" s="443"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="379"/>
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="379"/>
-      <c r="G35" s="379"/>
-      <c r="H35" s="379"/>
-      <c r="I35" s="379"/>
-      <c r="J35" s="379"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="507" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="507"/>
-      <c r="C36" s="507"/>
-      <c r="D36" s="507"/>
-      <c r="E36" s="379"/>
-      <c r="F36" s="379"/>
-      <c r="G36" s="379"/>
-      <c r="H36" s="379"/>
-      <c r="I36" s="379"/>
-      <c r="J36" s="379"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="508" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="508"/>
-      <c r="C37" s="444" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="444" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="379"/>
-      <c r="F37" s="379"/>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="509">
-        <f>A21-F32</f>
-        <v>11731472</v>
-      </c>
-      <c r="B38" s="510"/>
-      <c r="C38" s="445">
-        <f>1-G32</f>
-        <v>0.69830190476190479</v>
-      </c>
-      <c r="D38" s="446">
-        <f>(C38/0.8)*100</f>
-        <v>87.287738095238097</v>
-      </c>
-      <c r="E38" s="447" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="447"/>
-      <c r="G38" s="447"/>
-      <c r="H38" s="447"/>
-      <c r="I38" s="447"/>
-      <c r="J38" s="447"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="379"/>
-      <c r="B39" s="379"/>
-      <c r="C39" s="379"/>
-      <c r="D39" s="379"/>
-      <c r="E39" s="379"/>
-      <c r="F39" s="379"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="438"/>
+      <c r="C37" s="438"/>
+      <c r="D37" s="439"/>
+      <c r="E37" s="476">
+        <f>SUM(E21:E36)</f>
+        <v>5327904</v>
+      </c>
+      <c r="F37" s="477">
+        <f>SUM(F21:F36)</f>
+        <v>5557379</v>
+      </c>
+      <c r="G37" s="440">
+        <f>SUM(G21:G36)</f>
+        <v>0.330796369047619</v>
+      </c>
+      <c r="H37" s="441">
+        <f>A21-F37</f>
+        <v>11242621</v>
+      </c>
+      <c r="I37" s="442">
+        <f>1-G37</f>
+        <v>0.669203630952381</v>
+      </c>
+      <c r="J37" s="442"/>
+      <c r="K37" s="443"/>
+      <c r="L37" s="443"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="379"/>
       <c r="B40" s="379"/>
       <c r="C40" s="379"/>
@@ -10569,15 +10585,14 @@
       <c r="H40" s="379"/>
       <c r="I40" s="379"/>
       <c r="J40" s="379"/>
-      <c r="K40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="379"/>
-      <c r="B41" s="448"/>
-      <c r="C41" s="448"/>
-      <c r="D41" s="379"/>
+    </row>
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="510" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="510"/>
+      <c r="C41" s="510"/>
+      <c r="D41" s="510"/>
       <c r="E41" s="379"/>
       <c r="F41" s="379"/>
       <c r="G41" s="379"/>
@@ -10585,77 +10600,103 @@
       <c r="I41" s="379"/>
       <c r="J41" s="379"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="449"/>
-      <c r="B42" s="449"/>
-      <c r="C42" s="449"/>
-      <c r="D42" s="449"/>
-      <c r="E42" s="449"/>
-      <c r="F42" s="449"/>
-      <c r="G42" s="449"/>
-      <c r="H42" s="449"/>
-      <c r="I42" s="511"/>
-      <c r="J42" s="512"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="450"/>
-      <c r="B43" s="451"/>
-      <c r="C43" s="451"/>
-      <c r="D43" s="379"/>
-      <c r="E43" s="379"/>
-      <c r="F43" s="451"/>
-      <c r="G43" s="409"/>
-      <c r="H43" s="451"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="450"/>
-      <c r="B44" s="451"/>
-      <c r="C44" s="451"/>
-      <c r="D44" s="451"/>
-      <c r="E44" s="451"/>
-      <c r="F44" s="451"/>
-      <c r="G44" s="409"/>
-      <c r="H44" s="451"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="450"/>
-      <c r="B45" s="451"/>
-      <c r="C45" s="451"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="511" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="511"/>
+      <c r="C42" s="444" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="444" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="379"/>
+      <c r="F42" s="379"/>
+      <c r="G42" s="379"/>
+      <c r="H42" s="379"/>
+      <c r="I42" s="379"/>
+      <c r="J42" s="379"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="512">
+        <f>A21-F37</f>
+        <v>11242621</v>
+      </c>
+      <c r="B43" s="513"/>
+      <c r="C43" s="445">
+        <f>1-G37</f>
+        <v>0.669203630952381</v>
+      </c>
+      <c r="D43" s="446">
+        <f>(C43/0.8)*100</f>
+        <v>83.650453869047624</v>
+      </c>
+      <c r="E43" s="447" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="447"/>
+      <c r="G43" s="447"/>
+      <c r="H43" s="447"/>
+      <c r="I43" s="447"/>
+      <c r="J43" s="447"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="379"/>
+      <c r="B44" s="379"/>
+      <c r="C44" s="379"/>
+      <c r="D44" s="379"/>
+      <c r="E44" s="379"/>
+      <c r="F44" s="379"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="379"/>
+      <c r="B45" s="379"/>
+      <c r="C45" s="379"/>
       <c r="D45" s="379"/>
       <c r="E45" s="379"/>
-      <c r="F45" s="451"/>
-      <c r="G45" s="409"/>
-      <c r="H45" s="451"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="450"/>
-      <c r="B46" s="451"/>
-      <c r="C46" s="451"/>
-      <c r="D46" s="451"/>
-      <c r="E46" s="451"/>
-      <c r="F46" s="451"/>
-      <c r="G46" s="409"/>
-      <c r="H46" s="451"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="450"/>
-      <c r="B47" s="451"/>
-      <c r="C47" s="451"/>
-      <c r="D47" s="379"/>
-      <c r="E47" s="379"/>
-      <c r="F47" s="451"/>
-      <c r="G47" s="409"/>
-      <c r="H47" s="451"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F45" s="379"/>
+      <c r="G45" s="379"/>
+      <c r="H45" s="379"/>
+      <c r="I45" s="379"/>
+      <c r="J45" s="379"/>
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="379"/>
+      <c r="B46" s="448"/>
+      <c r="C46" s="448"/>
+      <c r="D46" s="379"/>
+      <c r="E46" s="379"/>
+      <c r="F46" s="379"/>
+      <c r="G46" s="379"/>
+      <c r="H46" s="379"/>
+      <c r="I46" s="379"/>
+      <c r="J46" s="379"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="449"/>
+      <c r="B47" s="449"/>
+      <c r="C47" s="449"/>
+      <c r="D47" s="449"/>
+      <c r="E47" s="449"/>
+      <c r="F47" s="449"/>
+      <c r="G47" s="449"/>
+      <c r="H47" s="449"/>
+      <c r="I47" s="504"/>
+      <c r="J47" s="505"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="450"/>
       <c r="B48" s="451"/>
-      <c r="C48" s="399"/>
-      <c r="D48" s="452"/>
-      <c r="E48" s="452"/>
-      <c r="F48" s="399"/>
-      <c r="G48" s="399"/>
-      <c r="H48" s="399"/>
+      <c r="C48" s="451"/>
+      <c r="D48" s="379"/>
+      <c r="E48" s="379"/>
+      <c r="F48" s="451"/>
+      <c r="G48" s="409"/>
+      <c r="H48" s="451"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="450"/>
@@ -10671,8 +10712,8 @@
       <c r="A50" s="450"/>
       <c r="B50" s="451"/>
       <c r="C50" s="451"/>
-      <c r="D50" s="451"/>
-      <c r="E50" s="451"/>
+      <c r="D50" s="379"/>
+      <c r="E50" s="379"/>
       <c r="F50" s="451"/>
       <c r="G50" s="409"/>
       <c r="H50" s="451"/>
@@ -10681,98 +10722,145 @@
       <c r="A51" s="450"/>
       <c r="B51" s="451"/>
       <c r="C51" s="451"/>
-      <c r="D51" s="379"/>
-      <c r="E51" s="379"/>
+      <c r="D51" s="451"/>
+      <c r="E51" s="451"/>
       <c r="F51" s="451"/>
       <c r="G51" s="409"/>
       <c r="H51" s="451"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="379"/>
-      <c r="B52" s="504"/>
-      <c r="C52" s="504"/>
-      <c r="D52" s="505"/>
-      <c r="E52" s="447"/>
-      <c r="F52" s="379"/>
-      <c r="G52" s="379"/>
-      <c r="H52" s="379"/>
-      <c r="I52" s="379"/>
-      <c r="J52" s="379"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="450"/>
+      <c r="B52" s="451"/>
+      <c r="C52" s="451"/>
+      <c r="D52" s="379"/>
+      <c r="E52" s="379"/>
+      <c r="F52" s="451"/>
+      <c r="G52" s="409"/>
+      <c r="H52" s="451"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="449"/>
-      <c r="B53" s="449"/>
-      <c r="C53" s="449"/>
-      <c r="D53" s="449"/>
-      <c r="E53" s="449"/>
-      <c r="F53" s="449"/>
-      <c r="G53" s="449"/>
-      <c r="H53" s="449"/>
-      <c r="I53" s="511"/>
-      <c r="J53" s="512"/>
+      <c r="A53" s="450"/>
+      <c r="B53" s="451"/>
+      <c r="C53" s="399"/>
+      <c r="D53" s="452"/>
+      <c r="E53" s="452"/>
+      <c r="F53" s="399"/>
+      <c r="G53" s="399"/>
+      <c r="H53" s="399"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="450"/>
-      <c r="B54" s="379"/>
-      <c r="C54" s="379"/>
-      <c r="D54" s="379"/>
-      <c r="E54" s="379"/>
-      <c r="F54" s="409"/>
+      <c r="B54" s="451"/>
+      <c r="C54" s="451"/>
+      <c r="D54" s="451"/>
+      <c r="E54" s="451"/>
+      <c r="F54" s="451"/>
       <c r="G54" s="409"/>
       <c r="H54" s="451"/>
-      <c r="I54" s="513"/>
-      <c r="J54" s="513"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="450"/>
-      <c r="B55" s="379"/>
-      <c r="C55" s="379"/>
-      <c r="D55" s="399"/>
-      <c r="E55" s="399"/>
-      <c r="F55" s="399"/>
-      <c r="G55" s="399"/>
-      <c r="H55" s="399"/>
-      <c r="I55" s="513"/>
-      <c r="J55" s="513"/>
+      <c r="B55" s="451"/>
+      <c r="C55" s="451"/>
+      <c r="D55" s="451"/>
+      <c r="E55" s="451"/>
+      <c r="F55" s="451"/>
+      <c r="G55" s="409"/>
+      <c r="H55" s="451"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="379"/>
-      <c r="B56" s="379"/>
-      <c r="C56" s="379"/>
+      <c r="A56" s="450"/>
+      <c r="B56" s="451"/>
+      <c r="C56" s="451"/>
       <c r="D56" s="379"/>
       <c r="E56" s="379"/>
-      <c r="F56" s="379"/>
-      <c r="G56" s="379"/>
-      <c r="H56" s="379"/>
+      <c r="F56" s="451"/>
+      <c r="G56" s="409"/>
+      <c r="H56" s="451"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="379"/>
+      <c r="B57" s="507"/>
+      <c r="C57" s="507"/>
+      <c r="D57" s="508"/>
+      <c r="E57" s="447"/>
+      <c r="F57" s="379"/>
+      <c r="G57" s="379"/>
+      <c r="H57" s="379"/>
+      <c r="I57" s="379"/>
+      <c r="J57" s="379"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="449"/>
+      <c r="B58" s="449"/>
+      <c r="C58" s="449"/>
+      <c r="D58" s="449"/>
+      <c r="E58" s="449"/>
+      <c r="F58" s="449"/>
+      <c r="G58" s="449"/>
+      <c r="H58" s="449"/>
+      <c r="I58" s="504"/>
+      <c r="J58" s="505"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="450"/>
+      <c r="B59" s="379"/>
+      <c r="C59" s="379"/>
+      <c r="D59" s="379"/>
+      <c r="E59" s="379"/>
+      <c r="F59" s="409"/>
+      <c r="G59" s="409"/>
+      <c r="H59" s="451"/>
+      <c r="I59" s="506"/>
+      <c r="J59" s="506"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="450"/>
+      <c r="B60" s="379"/>
+      <c r="C60" s="379"/>
+      <c r="D60" s="399"/>
+      <c r="E60" s="399"/>
+      <c r="F60" s="399"/>
+      <c r="G60" s="399"/>
+      <c r="H60" s="399"/>
+      <c r="I60" s="506"/>
+      <c r="J60" s="506"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="511"/>
-      <c r="C61" s="512"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="511"/>
-      <c r="C68" s="512"/>
+      <c r="A61" s="379"/>
+      <c r="B61" s="379"/>
+      <c r="C61" s="379"/>
+      <c r="D61" s="379"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="379"/>
+      <c r="G61" s="379"/>
+      <c r="H61" s="379"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="504"/>
+      <c r="C66" s="505"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="504"/>
+      <c r="C73" s="505"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B57:D57"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10848,47 +10936,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="521" t="s">
+      <c r="A11" s="538" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="521"/>
-      <c r="C11" s="521"/>
-      <c r="D11" s="521"/>
-      <c r="E11" s="521"/>
-      <c r="F11" s="521"/>
-      <c r="G11" s="521"/>
-      <c r="H11" s="521"/>
-      <c r="I11" s="521"/>
-      <c r="J11" s="521"/>
+      <c r="B11" s="538"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="538"/>
+      <c r="E11" s="538"/>
+      <c r="F11" s="538"/>
+      <c r="G11" s="538"/>
+      <c r="H11" s="538"/>
+      <c r="I11" s="538"/>
+      <c r="J11" s="538"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="520" t="s">
+      <c r="A12" s="537" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="520"/>
-      <c r="C12" s="520"/>
-      <c r="D12" s="520"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="520"/>
-      <c r="G12" s="520"/>
-      <c r="H12" s="520"/>
-      <c r="I12" s="520"/>
-      <c r="J12" s="520"/>
+      <c r="B12" s="537"/>
+      <c r="C12" s="537"/>
+      <c r="D12" s="537"/>
+      <c r="E12" s="537"/>
+      <c r="F12" s="537"/>
+      <c r="G12" s="537"/>
+      <c r="H12" s="537"/>
+      <c r="I12" s="537"/>
+      <c r="J12" s="537"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="522" t="str">
+      <c r="A13" s="539" t="str">
         <f>Данные!A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="B13" s="523"/>
-      <c r="C13" s="523"/>
-      <c r="D13" s="523"/>
-      <c r="E13" s="523"/>
-      <c r="F13" s="523"/>
-      <c r="G13" s="523"/>
-      <c r="H13" s="523"/>
-      <c r="I13" s="523"/>
-      <c r="J13" s="523"/>
+      <c r="B13" s="540"/>
+      <c r="C13" s="540"/>
+      <c r="D13" s="540"/>
+      <c r="E13" s="540"/>
+      <c r="F13" s="540"/>
+      <c r="G13" s="540"/>
+      <c r="H13" s="540"/>
+      <c r="I13" s="540"/>
+      <c r="J13" s="540"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -11013,493 +11101,493 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="524" t="s">
+      <c r="A22" s="541" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="524" t="s">
+      <c r="B22" s="541" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="524"/>
-      <c r="D22" s="524"/>
-      <c r="E22" s="524" t="s">
+      <c r="C22" s="541"/>
+      <c r="D22" s="541"/>
+      <c r="E22" s="541" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="524"/>
-      <c r="G22" s="539" t="s">
+      <c r="F22" s="541"/>
+      <c r="G22" s="542" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="524" t="s">
+      <c r="H22" s="541" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="524"/>
-      <c r="J22" s="524"/>
+      <c r="I22" s="541"/>
+      <c r="J22" s="541"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="524"/>
-      <c r="B23" s="524"/>
-      <c r="C23" s="524"/>
-      <c r="D23" s="524"/>
-      <c r="E23" s="524"/>
-      <c r="F23" s="524"/>
-      <c r="G23" s="539"/>
-      <c r="H23" s="524"/>
-      <c r="I23" s="524"/>
-      <c r="J23" s="524"/>
+      <c r="A23" s="541"/>
+      <c r="B23" s="541"/>
+      <c r="C23" s="541"/>
+      <c r="D23" s="541"/>
+      <c r="E23" s="541"/>
+      <c r="F23" s="541"/>
+      <c r="G23" s="542"/>
+      <c r="H23" s="541"/>
+      <c r="I23" s="541"/>
+      <c r="J23" s="541"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="525">
+      <c r="A24" s="514">
         <v>1</v>
       </c>
-      <c r="B24" s="514" t="s">
+      <c r="B24" s="534" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="515"/>
-      <c r="D24" s="516"/>
-      <c r="E24" s="527" t="str">
+      <c r="C24" s="535"/>
+      <c r="D24" s="536"/>
+      <c r="E24" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F24" s="528"/>
-      <c r="G24" s="531">
+      <c r="F24" s="520"/>
+      <c r="G24" s="523">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="533"/>
-      <c r="I24" s="534"/>
-      <c r="J24" s="535"/>
+      <c r="H24" s="525"/>
+      <c r="I24" s="526"/>
+      <c r="J24" s="527"/>
     </row>
     <row r="25" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="526"/>
-      <c r="B25" s="517" t="str">
+      <c r="A25" s="515"/>
+      <c r="B25" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C25" s="518"/>
-      <c r="D25" s="519"/>
-      <c r="E25" s="529"/>
-      <c r="F25" s="530"/>
-      <c r="G25" s="532"/>
-      <c r="H25" s="536"/>
-      <c r="I25" s="537"/>
-      <c r="J25" s="538"/>
+      <c r="C25" s="532"/>
+      <c r="D25" s="533"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="522"/>
+      <c r="G25" s="524"/>
+      <c r="H25" s="528"/>
+      <c r="I25" s="529"/>
+      <c r="J25" s="530"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="525">
+      <c r="A26" s="514">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="540" t="s">
+      <c r="B26" s="516" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="541"/>
-      <c r="D26" s="542"/>
-      <c r="E26" s="527" t="str">
+      <c r="C26" s="517"/>
+      <c r="D26" s="518"/>
+      <c r="E26" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F26" s="528"/>
-      <c r="G26" s="531">
+      <c r="F26" s="520"/>
+      <c r="G26" s="523">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="533"/>
-      <c r="I26" s="534"/>
-      <c r="J26" s="535"/>
+      <c r="H26" s="525"/>
+      <c r="I26" s="526"/>
+      <c r="J26" s="527"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="526"/>
-      <c r="B27" s="517" t="str">
+      <c r="A27" s="515"/>
+      <c r="B27" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C27" s="518"/>
-      <c r="D27" s="519"/>
-      <c r="E27" s="529"/>
-      <c r="F27" s="530"/>
-      <c r="G27" s="532"/>
-      <c r="H27" s="536"/>
-      <c r="I27" s="537"/>
-      <c r="J27" s="538"/>
+      <c r="C27" s="532"/>
+      <c r="D27" s="533"/>
+      <c r="E27" s="521"/>
+      <c r="F27" s="522"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="528"/>
+      <c r="I27" s="529"/>
+      <c r="J27" s="530"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="525">
+      <c r="A28" s="514">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="540" t="s">
+      <c r="B28" s="516" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="541"/>
-      <c r="D28" s="542"/>
-      <c r="E28" s="527" t="str">
+      <c r="C28" s="517"/>
+      <c r="D28" s="518"/>
+      <c r="E28" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F28" s="528"/>
-      <c r="G28" s="531">
+      <c r="F28" s="520"/>
+      <c r="G28" s="523">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="533"/>
-      <c r="I28" s="534"/>
-      <c r="J28" s="535"/>
+      <c r="H28" s="525"/>
+      <c r="I28" s="526"/>
+      <c r="J28" s="527"/>
     </row>
     <row r="29" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="526"/>
-      <c r="B29" s="517" t="str">
+      <c r="A29" s="515"/>
+      <c r="B29" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C29" s="518"/>
-      <c r="D29" s="519"/>
-      <c r="E29" s="529"/>
-      <c r="F29" s="530"/>
-      <c r="G29" s="532"/>
-      <c r="H29" s="536"/>
-      <c r="I29" s="537"/>
-      <c r="J29" s="538"/>
+      <c r="C29" s="532"/>
+      <c r="D29" s="533"/>
+      <c r="E29" s="521"/>
+      <c r="F29" s="522"/>
+      <c r="G29" s="524"/>
+      <c r="H29" s="528"/>
+      <c r="I29" s="529"/>
+      <c r="J29" s="530"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="525">
+      <c r="A30" s="514">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="540" t="s">
+      <c r="B30" s="516" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="541"/>
-      <c r="D30" s="542"/>
-      <c r="E30" s="527" t="str">
+      <c r="C30" s="517"/>
+      <c r="D30" s="518"/>
+      <c r="E30" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F30" s="528"/>
-      <c r="G30" s="531">
+      <c r="F30" s="520"/>
+      <c r="G30" s="523">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="H30" s="533"/>
-      <c r="I30" s="534"/>
-      <c r="J30" s="535"/>
+      <c r="H30" s="525"/>
+      <c r="I30" s="526"/>
+      <c r="J30" s="527"/>
     </row>
     <row r="31" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="526"/>
-      <c r="B31" s="517" t="str">
+      <c r="A31" s="515"/>
+      <c r="B31" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C31" s="518"/>
-      <c r="D31" s="519"/>
-      <c r="E31" s="529"/>
-      <c r="F31" s="530"/>
-      <c r="G31" s="532"/>
-      <c r="H31" s="536"/>
-      <c r="I31" s="537"/>
-      <c r="J31" s="538"/>
+      <c r="C31" s="532"/>
+      <c r="D31" s="533"/>
+      <c r="E31" s="521"/>
+      <c r="F31" s="522"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="528"/>
+      <c r="I31" s="529"/>
+      <c r="J31" s="530"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="525">
+      <c r="A32" s="514">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="540" t="s">
+      <c r="B32" s="516" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="541"/>
-      <c r="D32" s="542"/>
-      <c r="E32" s="527" t="str">
+      <c r="C32" s="517"/>
+      <c r="D32" s="518"/>
+      <c r="E32" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F32" s="528"/>
-      <c r="G32" s="531">
+      <c r="F32" s="520"/>
+      <c r="G32" s="523">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="H32" s="533"/>
-      <c r="I32" s="534"/>
-      <c r="J32" s="535"/>
+      <c r="H32" s="525"/>
+      <c r="I32" s="526"/>
+      <c r="J32" s="527"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="526"/>
-      <c r="B33" s="517" t="str">
+      <c r="A33" s="515"/>
+      <c r="B33" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C33" s="518"/>
-      <c r="D33" s="519"/>
-      <c r="E33" s="529"/>
-      <c r="F33" s="530"/>
-      <c r="G33" s="532"/>
-      <c r="H33" s="536"/>
-      <c r="I33" s="537"/>
-      <c r="J33" s="538"/>
+      <c r="C33" s="532"/>
+      <c r="D33" s="533"/>
+      <c r="E33" s="521"/>
+      <c r="F33" s="522"/>
+      <c r="G33" s="524"/>
+      <c r="H33" s="528"/>
+      <c r="I33" s="529"/>
+      <c r="J33" s="530"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="525">
+      <c r="A34" s="514">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="540" t="s">
+      <c r="B34" s="516" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="541"/>
-      <c r="D34" s="542"/>
-      <c r="E34" s="527" t="str">
+      <c r="C34" s="517"/>
+      <c r="D34" s="518"/>
+      <c r="E34" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F34" s="528"/>
-      <c r="G34" s="531">
+      <c r="F34" s="520"/>
+      <c r="G34" s="523">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="H34" s="533"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="535"/>
+      <c r="H34" s="525"/>
+      <c r="I34" s="526"/>
+      <c r="J34" s="527"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="526"/>
-      <c r="B35" s="517" t="str">
+      <c r="A35" s="515"/>
+      <c r="B35" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C35" s="518"/>
-      <c r="D35" s="519"/>
-      <c r="E35" s="529"/>
-      <c r="F35" s="530"/>
-      <c r="G35" s="532"/>
-      <c r="H35" s="536"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="538"/>
+      <c r="C35" s="532"/>
+      <c r="D35" s="533"/>
+      <c r="E35" s="521"/>
+      <c r="F35" s="522"/>
+      <c r="G35" s="524"/>
+      <c r="H35" s="528"/>
+      <c r="I35" s="529"/>
+      <c r="J35" s="530"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="525">
+      <c r="A36" s="514">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="540" t="s">
+      <c r="B36" s="516" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="541"/>
-      <c r="D36" s="542"/>
-      <c r="E36" s="527" t="str">
+      <c r="C36" s="517"/>
+      <c r="D36" s="518"/>
+      <c r="E36" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F36" s="528"/>
-      <c r="G36" s="531">
+      <c r="F36" s="520"/>
+      <c r="G36" s="523">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="533"/>
-      <c r="I36" s="534"/>
-      <c r="J36" s="535"/>
+      <c r="H36" s="525"/>
+      <c r="I36" s="526"/>
+      <c r="J36" s="527"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="526"/>
-      <c r="B37" s="517" t="str">
+      <c r="A37" s="515"/>
+      <c r="B37" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C37" s="518"/>
-      <c r="D37" s="519"/>
-      <c r="E37" s="529"/>
-      <c r="F37" s="530"/>
-      <c r="G37" s="532"/>
-      <c r="H37" s="536"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="538"/>
+      <c r="C37" s="532"/>
+      <c r="D37" s="533"/>
+      <c r="E37" s="521"/>
+      <c r="F37" s="522"/>
+      <c r="G37" s="524"/>
+      <c r="H37" s="528"/>
+      <c r="I37" s="529"/>
+      <c r="J37" s="530"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="525">
+      <c r="A38" s="514">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="540" t="s">
+      <c r="B38" s="516" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="541"/>
-      <c r="D38" s="542"/>
-      <c r="E38" s="527" t="str">
+      <c r="C38" s="517"/>
+      <c r="D38" s="518"/>
+      <c r="E38" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F38" s="528"/>
-      <c r="G38" s="531">
+      <c r="F38" s="520"/>
+      <c r="G38" s="523">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="533"/>
-      <c r="I38" s="534"/>
-      <c r="J38" s="535"/>
+      <c r="H38" s="525"/>
+      <c r="I38" s="526"/>
+      <c r="J38" s="527"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="526"/>
-      <c r="B39" s="517" t="str">
+      <c r="A39" s="515"/>
+      <c r="B39" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C39" s="518"/>
-      <c r="D39" s="519"/>
-      <c r="E39" s="529"/>
-      <c r="F39" s="530"/>
-      <c r="G39" s="532"/>
-      <c r="H39" s="536"/>
-      <c r="I39" s="537"/>
-      <c r="J39" s="538"/>
+      <c r="C39" s="532"/>
+      <c r="D39" s="533"/>
+      <c r="E39" s="521"/>
+      <c r="F39" s="522"/>
+      <c r="G39" s="524"/>
+      <c r="H39" s="528"/>
+      <c r="I39" s="529"/>
+      <c r="J39" s="530"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="525">
+      <c r="A40" s="514">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="540" t="s">
+      <c r="B40" s="516" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="541"/>
-      <c r="D40" s="542"/>
-      <c r="E40" s="527" t="str">
+      <c r="C40" s="517"/>
+      <c r="D40" s="518"/>
+      <c r="E40" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F40" s="528"/>
-      <c r="G40" s="531">
+      <c r="F40" s="520"/>
+      <c r="G40" s="523">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="533"/>
-      <c r="I40" s="534"/>
-      <c r="J40" s="535"/>
+      <c r="H40" s="525"/>
+      <c r="I40" s="526"/>
+      <c r="J40" s="527"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="526"/>
-      <c r="B41" s="517" t="str">
+      <c r="A41" s="515"/>
+      <c r="B41" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C41" s="518"/>
-      <c r="D41" s="519"/>
-      <c r="E41" s="529"/>
-      <c r="F41" s="530"/>
-      <c r="G41" s="532"/>
-      <c r="H41" s="536"/>
-      <c r="I41" s="537"/>
-      <c r="J41" s="538"/>
+      <c r="C41" s="532"/>
+      <c r="D41" s="533"/>
+      <c r="E41" s="521"/>
+      <c r="F41" s="522"/>
+      <c r="G41" s="524"/>
+      <c r="H41" s="528"/>
+      <c r="I41" s="529"/>
+      <c r="J41" s="530"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="525">
+      <c r="A42" s="514">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="540" t="s">
+      <c r="B42" s="516" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="541"/>
-      <c r="D42" s="542"/>
-      <c r="E42" s="527" t="str">
+      <c r="C42" s="517"/>
+      <c r="D42" s="518"/>
+      <c r="E42" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F42" s="528"/>
-      <c r="G42" s="531">
+      <c r="F42" s="520"/>
+      <c r="G42" s="523">
         <f>Данные!B25</f>
         <v>20</v>
       </c>
-      <c r="H42" s="533"/>
-      <c r="I42" s="534"/>
-      <c r="J42" s="535"/>
+      <c r="H42" s="525"/>
+      <c r="I42" s="526"/>
+      <c r="J42" s="527"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="526"/>
-      <c r="B43" s="517" t="str">
+      <c r="A43" s="515"/>
+      <c r="B43" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C43" s="518"/>
-      <c r="D43" s="519"/>
-      <c r="E43" s="529"/>
-      <c r="F43" s="530"/>
-      <c r="G43" s="532"/>
-      <c r="H43" s="536"/>
-      <c r="I43" s="537"/>
-      <c r="J43" s="538"/>
+      <c r="C43" s="532"/>
+      <c r="D43" s="533"/>
+      <c r="E43" s="521"/>
+      <c r="F43" s="522"/>
+      <c r="G43" s="524"/>
+      <c r="H43" s="528"/>
+      <c r="I43" s="529"/>
+      <c r="J43" s="530"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="525">
+      <c r="A44" s="514">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="540" t="s">
+      <c r="B44" s="516" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="541"/>
-      <c r="D44" s="542"/>
-      <c r="E44" s="527" t="str">
+      <c r="C44" s="517"/>
+      <c r="D44" s="518"/>
+      <c r="E44" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F44" s="528"/>
-      <c r="G44" s="531">
+      <c r="F44" s="520"/>
+      <c r="G44" s="523">
         <f>Данные!B26</f>
         <v>30</v>
       </c>
-      <c r="H44" s="533"/>
-      <c r="I44" s="534"/>
-      <c r="J44" s="535"/>
+      <c r="H44" s="525"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="527"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="526"/>
-      <c r="B45" s="517" t="str">
+      <c r="A45" s="515"/>
+      <c r="B45" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C45" s="518"/>
-      <c r="D45" s="519"/>
-      <c r="E45" s="529"/>
-      <c r="F45" s="530"/>
-      <c r="G45" s="532"/>
-      <c r="H45" s="536"/>
-      <c r="I45" s="537"/>
-      <c r="J45" s="538"/>
+      <c r="C45" s="532"/>
+      <c r="D45" s="533"/>
+      <c r="E45" s="521"/>
+      <c r="F45" s="522"/>
+      <c r="G45" s="524"/>
+      <c r="H45" s="528"/>
+      <c r="I45" s="529"/>
+      <c r="J45" s="530"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="525">
+      <c r="A46" s="514">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="540" t="s">
+      <c r="B46" s="516" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="541"/>
-      <c r="D46" s="542"/>
-      <c r="E46" s="527" t="str">
+      <c r="C46" s="517"/>
+      <c r="D46" s="518"/>
+      <c r="E46" s="519" t="str">
         <f>Данные!C$14</f>
         <v>XXI-КПМ-26-500-10</v>
       </c>
-      <c r="F46" s="528"/>
-      <c r="G46" s="531">
+      <c r="F46" s="520"/>
+      <c r="G46" s="523">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="533"/>
-      <c r="I46" s="534"/>
-      <c r="J46" s="535"/>
+      <c r="H46" s="525"/>
+      <c r="I46" s="526"/>
+      <c r="J46" s="527"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="526"/>
-      <c r="B47" s="517" t="str">
+      <c r="A47" s="515"/>
+      <c r="B47" s="531" t="str">
         <f>Данные!A$29</f>
         <v>(к серийному формокомплекту БутылкаXXI-КПМ-26-500-10 (Ice Cube)</v>
       </c>
-      <c r="C47" s="518"/>
-      <c r="D47" s="519"/>
-      <c r="E47" s="529"/>
-      <c r="F47" s="530"/>
-      <c r="G47" s="532"/>
-      <c r="H47" s="536"/>
-      <c r="I47" s="537"/>
-      <c r="J47" s="538"/>
+      <c r="C47" s="532"/>
+      <c r="D47" s="533"/>
+      <c r="E47" s="521"/>
+      <c r="F47" s="522"/>
+      <c r="G47" s="524"/>
+      <c r="H47" s="528"/>
+      <c r="I47" s="529"/>
+      <c r="J47" s="530"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11628,72 +11716,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="A12:J12"/>
@@ -11708,6 +11730,72 @@
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="E22:F23"/>
     <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11765,47 +11853,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11816,9 +11904,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11837,22 +11925,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11863,22 +11951,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11889,27 +11977,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="585"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12377,12 +12465,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="543" t="s">
+      <c r="B23" s="581" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="544"/>
-      <c r="D23" s="544"/>
-      <c r="E23" s="545"/>
+      <c r="C23" s="582"/>
+      <c r="D23" s="582"/>
+      <c r="E23" s="583"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12404,12 +12492,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="581" t="s">
+      <c r="B24" s="571" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="582"/>
-      <c r="D24" s="582"/>
-      <c r="E24" s="583"/>
+      <c r="C24" s="572"/>
+      <c r="D24" s="572"/>
+      <c r="E24" s="573"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12452,28 +12540,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="556" t="s">
+      <c r="K27" s="546" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="556"/>
-      <c r="M27" s="556"/>
+      <c r="L27" s="546"/>
+      <c r="M27" s="546"/>
       <c r="N27" s="457"/>
       <c r="O27" s="457"/>
       <c r="P27" s="473"/>
       <c r="Q27" s="473"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="553" t="s">
+      <c r="N28" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="553"/>
-      <c r="P28" s="554" t="s">
+      <c r="O28" s="543"/>
+      <c r="P28" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="555"/>
+      <c r="Q28" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12490,13 +12585,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12562,50 +12650,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="592">
+      <c r="B2" s="595">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12616,9 +12704,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12637,22 +12725,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12663,21 +12751,21 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="s">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12688,27 +12776,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12897,12 +12985,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="590" t="s">
+      <c r="B14" s="619" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="591"/>
-      <c r="D14" s="591"/>
-      <c r="E14" s="591"/>
+      <c r="C14" s="620"/>
+      <c r="D14" s="620"/>
+      <c r="E14" s="620"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12924,13 +13012,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="543" t="s">
+      <c r="B15" s="581" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="544"/>
-      <c r="D15" s="544"/>
-      <c r="E15" s="544"/>
-      <c r="F15" s="589"/>
+      <c r="C15" s="582"/>
+      <c r="D15" s="582"/>
+      <c r="E15" s="582"/>
+      <c r="F15" s="618"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -12949,12 +13037,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="571" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="572"/>
+      <c r="D16" s="572"/>
+      <c r="E16" s="573"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -13001,28 +13089,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="556" t="s">
+      <c r="L19" s="546" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="556"/>
-      <c r="N19" s="556"/>
+      <c r="M19" s="546"/>
+      <c r="N19" s="546"/>
       <c r="O19" s="457"/>
       <c r="P19" s="457"/>
       <c r="Q19" s="473"/>
       <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="543"/>
+      <c r="Q20" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13036,17 +13135,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13123,47 +13211,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="569"/>
-      <c r="Q2" s="569"/>
+      <c r="P2" s="559"/>
+      <c r="Q2" s="559"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13174,9 +13262,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13195,22 +13283,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13221,22 +13309,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13247,27 +13335,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="585"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13740,24 +13828,17 @@
       <c r="R23" s="473"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
+      <c r="P24" s="543"/>
+      <c r="Q24" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13772,6 +13853,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13839,24 +13927,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="557"/>
-      <c r="C2" s="558"/>
-      <c r="D2" s="559"/>
-      <c r="E2" s="566" t="s">
+      <c r="B2" s="547"/>
+      <c r="C2" s="548"/>
+      <c r="D2" s="549"/>
+      <c r="E2" s="556" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="567"/>
-      <c r="G2" s="567"/>
-      <c r="H2" s="568"/>
-      <c r="I2" s="573" t="s">
+      <c r="F2" s="557"/>
+      <c r="G2" s="557"/>
+      <c r="H2" s="558"/>
+      <c r="I2" s="563" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="574"/>
-      <c r="K2" s="577">
+      <c r="J2" s="564"/>
+      <c r="K2" s="567">
         <f>Данные!B17</f>
         <v>30</v>
       </c>
-      <c r="L2" s="578"/>
+      <c r="L2" s="568"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13867,19 +13955,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="560"/>
-      <c r="C3" s="561"/>
-      <c r="D3" s="562"/>
-      <c r="E3" s="570" t="s">
+      <c r="B3" s="550"/>
+      <c r="C3" s="551"/>
+      <c r="D3" s="552"/>
+      <c r="E3" s="560" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="571"/>
-      <c r="G3" s="571"/>
-      <c r="H3" s="572"/>
-      <c r="I3" s="575"/>
-      <c r="J3" s="576"/>
-      <c r="K3" s="579"/>
-      <c r="L3" s="580"/>
+      <c r="F3" s="561"/>
+      <c r="G3" s="561"/>
+      <c r="H3" s="562"/>
+      <c r="I3" s="565"/>
+      <c r="J3" s="566"/>
+      <c r="K3" s="569"/>
+      <c r="L3" s="570"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13890,9 +13978,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="563"/>
-      <c r="C4" s="564"/>
-      <c r="D4" s="565"/>
+      <c r="B4" s="553"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="555"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13911,22 +13999,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="585"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="575"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="546"/>
-      <c r="J5" s="547"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="576"/>
+      <c r="J5" s="577"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13937,22 +14025,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="578"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="546"/>
-      <c r="J6" s="547"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="576"/>
+      <c r="J6" s="577"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13963,27 +14051,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="549"/>
-      <c r="D7" s="499">
+      <c r="C7" s="585"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="548" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="584" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="552"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14266,23 +14354,17 @@
       <c r="R18" s="473"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="553" t="s">
+      <c r="O19" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="553"/>
-      <c r="Q19" s="554" t="s">
+      <c r="P19" s="543"/>
+      <c r="Q19" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="555"/>
+      <c r="R19" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14298,6 +14380,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14369,24 +14457,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B18</f>
         <v>60</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="623"/>
       <c r="N2" s="624"/>
       <c r="O2" s="624"/>
@@ -14397,19 +14485,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="626"/>
       <c r="N3" s="627"/>
       <c r="O3" s="627"/>
@@ -14420,9 +14508,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14441,22 +14529,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="626"/>
       <c r="N5" s="627"/>
       <c r="O5" s="627"/>
@@ -14467,22 +14555,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="626"/>
       <c r="N6" s="627"/>
       <c r="O6" s="627"/>
@@ -14493,27 +14581,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="626"/>
       <c r="N7" s="627"/>
       <c r="O7" s="627"/>
@@ -14888,12 +14976,12 @@
     </row>
     <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="581" t="s">
+      <c r="B20" s="571" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="582"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="583"/>
+      <c r="C20" s="572"/>
+      <c r="D20" s="572"/>
+      <c r="E20" s="573"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -14949,17 +15037,23 @@
       <c r="R23" s="473"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O24" s="553" t="s">
+      <c r="O24" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="553"/>
-      <c r="Q24" s="554" t="s">
+      <c r="P24" s="543"/>
+      <c r="Q24" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="555"/>
+      <c r="R24" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -14976,12 +15070,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15046,24 +15134,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="592"/>
-      <c r="C2" s="593"/>
-      <c r="D2" s="594"/>
-      <c r="E2" s="601" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="602"/>
-      <c r="G2" s="602"/>
-      <c r="H2" s="603"/>
-      <c r="I2" s="607" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="608"/>
-      <c r="K2" s="611">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B19</f>
         <v>80</v>
       </c>
-      <c r="L2" s="612"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -15074,19 +15162,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="595"/>
-      <c r="C3" s="596"/>
-      <c r="D3" s="597"/>
-      <c r="E3" s="604" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="605"/>
-      <c r="G3" s="605"/>
-      <c r="H3" s="606"/>
-      <c r="I3" s="609"/>
-      <c r="J3" s="610"/>
-      <c r="K3" s="613"/>
-      <c r="L3" s="614"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15097,9 +15185,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="598"/>
-      <c r="C4" s="599"/>
-      <c r="D4" s="600"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15118,22 +15206,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="584" t="s">
+      <c r="B5" s="574" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="615"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="589"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="616"/>
-      <c r="J5" s="617"/>
-      <c r="K5" s="618"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="590"/>
+      <c r="J5" s="591"/>
+      <c r="K5" s="592"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15144,22 +15232,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="584" t="s">
+      <c r="B6" s="574" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="615"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="589"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>ХXI-КПМ-26-4-500-10 (Ice Cube)</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="616"/>
-      <c r="J6" s="617"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="579"/>
+      <c r="F6" s="579"/>
+      <c r="G6" s="579"/>
+      <c r="H6" s="580"/>
+      <c r="I6" s="590"/>
+      <c r="J6" s="591"/>
+      <c r="K6" s="592"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15170,27 +15258,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="548" t="s">
+      <c r="B7" s="584" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="619"/>
-      <c r="D7" s="499">
+      <c r="C7" s="593"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="550"/>
-      <c r="F7" s="550"/>
-      <c r="G7" s="550"/>
-      <c r="H7" s="551"/>
-      <c r="I7" s="620" t="s">
+      <c r="E7" s="586"/>
+      <c r="F7" s="586"/>
+      <c r="G7" s="586"/>
+      <c r="H7" s="587"/>
+      <c r="I7" s="594" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="K7" s="487">
+      <c r="J7" s="593"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15441,12 +15529,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="581" t="s">
+      <c r="B16" s="571" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="582"/>
-      <c r="D16" s="582"/>
-      <c r="E16" s="583"/>
+      <c r="C16" s="572"/>
+      <c r="D16" s="572"/>
+      <c r="E16" s="573"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15502,17 +15590,27 @@
       <c r="R19" s="473"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="553" t="s">
+      <c r="O20" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="553"/>
-      <c r="Q20" s="554" t="s">
+      <c r="P20" s="543"/>
+      <c r="Q20" s="544" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="555"/>
+      <c r="R20" s="545"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15525,16 +15623,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
